--- a/linear_modeling/SuppDataset4_SummaryTraits.xlsx
+++ b/linear_modeling/SuppDataset4_SummaryTraits.xlsx
@@ -285,22 +285,22 @@
     <t>IL_1.1.2</t>
   </si>
   <si>
-    <t>i31-n31</t>
+    <t>n31-i31</t>
   </si>
   <si>
-    <t>i33-n33</t>
+    <t>n33-i33</t>
   </si>
   <si>
-    <t>d13C_i.C31</t>
+    <t>eps13C_i.C31</t>
   </si>
   <si>
-    <t>d13C_n.C31</t>
+    <t>eps13C_n.C31</t>
   </si>
   <si>
-    <t>d13C_i.C33</t>
+    <t>eps13C_i.C33</t>
   </si>
   <si>
-    <t>d13C_n.C33</t>
+    <t>eps13C_n.C33</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,10 +364,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3233,7 +3229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3241,7 +3237,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2845">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6419,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6529,22 +6524,22 @@
         <v>31.8</v>
       </c>
       <c r="L2" s="6">
-        <v>-30.7</v>
+        <v>-14.5</v>
       </c>
       <c r="M2" s="6">
-        <v>-32.1</v>
+        <v>-16</v>
       </c>
       <c r="N2" s="6">
-        <v>-30.4</v>
+        <v>-14.2</v>
       </c>
       <c r="O2" s="6">
-        <v>-31.6</v>
+        <v>-15.5</v>
       </c>
       <c r="P2" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q2" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6581,23 +6576,23 @@
       <c r="K3" s="6">
         <v>31.8</v>
       </c>
-      <c r="L3" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="N3" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="O3" s="7">
-        <v>-38.299999999999997</v>
+      <c r="L3" s="6">
+        <v>-20</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-22.6</v>
+      </c>
+      <c r="N3" s="6">
+        <v>-20.8</v>
+      </c>
+      <c r="O3" s="6">
+        <v>-22.3</v>
       </c>
       <c r="P3" s="6">
-        <v>2.6</v>
+        <v>-2.6</v>
       </c>
       <c r="Q3" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6634,23 +6629,23 @@
       <c r="K4" s="6">
         <v>31.7</v>
       </c>
-      <c r="L4" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="M4" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O4" s="7">
-        <v>-35.4</v>
+      <c r="L4" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-20</v>
+      </c>
+      <c r="N4" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O4" s="6">
+        <v>-19.3</v>
       </c>
       <c r="P4" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q4" s="6">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -6687,23 +6682,23 @@
       <c r="K5" s="6">
         <v>31.7</v>
       </c>
-      <c r="L5" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="M5" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>-34.5</v>
+      <c r="L5" s="6">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="M5" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="N5" s="6">
+        <v>-17</v>
+      </c>
+      <c r="O5" s="6">
+        <v>-18.399999999999999</v>
       </c>
       <c r="P5" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q5" s="6">
-        <v>1.5</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -6740,23 +6735,23 @@
       <c r="K6" s="6">
         <v>31.7</v>
       </c>
-      <c r="L6" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="M6" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="O6" s="7">
-        <v>-35.5</v>
+      <c r="L6" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="M6" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N6" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="O6" s="6">
+        <v>-19.5</v>
       </c>
       <c r="P6" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="Q6" s="6">
-        <v>0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -6793,23 +6788,23 @@
       <c r="K7" s="6">
         <v>31.9</v>
       </c>
-      <c r="L7" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="M7" s="7">
-        <v>-37.4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="O7" s="7">
-        <v>-37.1</v>
+      <c r="L7" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-21.3</v>
+      </c>
+      <c r="N7" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-21</v>
       </c>
       <c r="P7" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -6846,23 +6841,23 @@
       <c r="K8" s="6">
         <v>32</v>
       </c>
-      <c r="L8" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N8" s="7">
-        <v>-34</v>
-      </c>
-      <c r="O8" s="7">
-        <v>-35</v>
+      <c r="L8" s="6">
+        <v>-18</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-19.7</v>
+      </c>
+      <c r="N8" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="O8" s="6">
+        <v>-18.899999999999999</v>
       </c>
       <c r="P8" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="Q8" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -6899,23 +6894,23 @@
       <c r="K9" s="6">
         <v>31.9</v>
       </c>
-      <c r="L9" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="N9" s="7">
-        <v>-32</v>
-      </c>
-      <c r="O9" s="7">
-        <v>-33.299999999999997</v>
+      <c r="L9" s="6">
+        <v>-16</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>-15.8</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-17.2</v>
       </c>
       <c r="P9" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q9" s="6">
-        <v>1.4</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -6952,23 +6947,23 @@
       <c r="K10" s="6">
         <v>31.9</v>
       </c>
-      <c r="L10" s="7">
-        <v>-35</v>
-      </c>
-      <c r="M10" s="7">
-        <v>-36.4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="O10" s="7">
-        <v>-35.700000000000003</v>
+      <c r="L10" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="N10" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="O10" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P10" s="6">
-        <v>1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="Q10" s="6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -7005,23 +7000,23 @@
       <c r="K11" s="6">
         <v>31.8</v>
       </c>
-      <c r="L11" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="O11" s="7">
-        <v>-32.799999999999997</v>
+      <c r="L11" s="6">
+        <v>-16</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-17</v>
+      </c>
+      <c r="N11" s="6">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="O11" s="6">
+        <v>-16.7</v>
       </c>
       <c r="P11" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q11" s="6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -7058,23 +7053,23 @@
       <c r="K12" s="6">
         <v>31.8</v>
       </c>
-      <c r="L12" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="M12" s="7">
-        <v>-36.9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>-36.9</v>
-      </c>
-      <c r="O12" s="7">
-        <v>-37.700000000000003</v>
+      <c r="L12" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-20.9</v>
+      </c>
+      <c r="N12" s="6">
+        <v>-20.8</v>
+      </c>
+      <c r="O12" s="6">
+        <v>-21.6</v>
       </c>
       <c r="P12" s="6">
-        <v>1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="Q12" s="6">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -7164,23 +7159,23 @@
       <c r="K14" s="6">
         <v>32.1</v>
       </c>
-      <c r="L14" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="M14" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="O14" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L14" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <v>-17</v>
+      </c>
+      <c r="O14" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P14" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q14" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -7270,23 +7265,23 @@
       <c r="K16" s="6">
         <v>31.9</v>
       </c>
-      <c r="L16" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="M16" s="7">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="N16" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="O16" s="7">
-        <v>-37.200000000000003</v>
+      <c r="L16" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="M16" s="6">
+        <v>-21.7</v>
+      </c>
+      <c r="N16" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="O16" s="6">
+        <v>-21.2</v>
       </c>
       <c r="P16" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q16" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -7323,23 +7318,23 @@
       <c r="K17" s="6">
         <v>31.8</v>
       </c>
-      <c r="L17" s="7">
-        <v>-31</v>
-      </c>
-      <c r="M17" s="7">
-        <v>-32.4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>-30.7</v>
-      </c>
-      <c r="O17" s="7">
-        <v>-32.1</v>
+      <c r="L17" s="6">
+        <v>-14.9</v>
+      </c>
+      <c r="M17" s="6">
+        <v>-16.3</v>
+      </c>
+      <c r="N17" s="6">
+        <v>-14.5</v>
+      </c>
+      <c r="O17" s="6">
+        <v>-16</v>
       </c>
       <c r="P17" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q17" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -7376,23 +7371,23 @@
       <c r="K18" s="6">
         <v>31.7</v>
       </c>
-      <c r="L18" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="M18" s="7">
-        <v>-36.5</v>
-      </c>
-      <c r="N18" s="7">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="O18" s="7">
-        <v>-35.700000000000003</v>
+      <c r="L18" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-20.5</v>
+      </c>
+      <c r="N18" s="6">
+        <v>-18.7</v>
+      </c>
+      <c r="O18" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P18" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q18" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -7429,23 +7424,23 @@
       <c r="K19" s="6">
         <v>31.8</v>
       </c>
-      <c r="L19" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="M19" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="O19" s="7">
-        <v>-34.6</v>
+      <c r="L19" s="6">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="M19" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="N19" s="6">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="O19" s="6">
+        <v>-18.5</v>
       </c>
       <c r="P19" s="6">
-        <v>2</v>
+        <v>-1.9</v>
       </c>
       <c r="Q19" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -7482,23 +7477,23 @@
       <c r="K20" s="6">
         <v>31.8</v>
       </c>
-      <c r="L20" s="7">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="M20" s="7">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="N20" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="O20" s="7">
-        <v>-34.200000000000003</v>
+      <c r="L20" s="6">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="M20" s="6">
+        <v>-18.7</v>
+      </c>
+      <c r="N20" s="6">
+        <v>-15.9</v>
+      </c>
+      <c r="O20" s="6">
+        <v>-18.100000000000001</v>
       </c>
       <c r="P20" s="6">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q20" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -7535,23 +7530,23 @@
       <c r="K21" s="6">
         <v>31.9</v>
       </c>
-      <c r="L21" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="M21" s="7">
-        <v>-36.9</v>
-      </c>
-      <c r="N21" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O21" s="7">
-        <v>-36.299999999999997</v>
+      <c r="L21" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="M21" s="6">
+        <v>-20.9</v>
+      </c>
+      <c r="N21" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O21" s="6">
+        <v>-20.2</v>
       </c>
       <c r="P21" s="6">
-        <v>2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="Q21" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -7588,23 +7583,23 @@
       <c r="K22" s="6">
         <v>31.9</v>
       </c>
-      <c r="L22" s="7">
-        <v>-37.6</v>
-      </c>
-      <c r="M22" s="7">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="N22" s="7">
-        <v>-37.4</v>
-      </c>
-      <c r="O22" s="7">
-        <v>-38.799999999999997</v>
+      <c r="L22" s="6">
+        <v>-21.6</v>
+      </c>
+      <c r="M22" s="6">
+        <v>-23.3</v>
+      </c>
+      <c r="N22" s="6">
+        <v>-21.3</v>
+      </c>
+      <c r="O22" s="6">
+        <v>-22.8</v>
       </c>
       <c r="P22" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q22" s="6">
-        <v>1.5</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -7641,23 +7636,23 @@
       <c r="K23" s="6">
         <v>31.8</v>
       </c>
-      <c r="L23" s="7">
-        <v>-30.8</v>
-      </c>
-      <c r="M23" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="N23" s="7">
-        <v>-30.1</v>
-      </c>
-      <c r="O23" s="7">
-        <v>-31.8</v>
+      <c r="L23" s="6">
+        <v>-14.6</v>
+      </c>
+      <c r="M23" s="6">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="N23" s="6">
+        <v>-14</v>
+      </c>
+      <c r="O23" s="6">
+        <v>-15.6</v>
       </c>
       <c r="P23" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q23" s="6">
-        <v>1.6</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -7694,23 +7689,23 @@
       <c r="K24" s="6">
         <v>31.9</v>
       </c>
-      <c r="L24" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="M24" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N24" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="O24" s="7">
-        <v>-35.200000000000003</v>
+      <c r="L24" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="M24" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N24" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O24" s="6">
+        <v>-19.2</v>
       </c>
       <c r="P24" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q24" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -7853,23 +7848,23 @@
       <c r="K27" s="6">
         <v>31.9</v>
       </c>
-      <c r="L27" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="M27" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="N27" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="O27" s="7">
-        <v>-33.9</v>
+      <c r="L27" s="6">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="M27" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="N27" s="6">
+        <v>-16.5</v>
+      </c>
+      <c r="O27" s="6">
+        <v>-17.8</v>
       </c>
       <c r="P27" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="Q27" s="6">
-        <v>1.3</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -7906,23 +7901,23 @@
       <c r="K28" s="6">
         <v>31.9</v>
       </c>
-      <c r="L28" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="M28" s="7">
-        <v>-37.700000000000003</v>
-      </c>
-      <c r="N28" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="O28" s="7">
-        <v>-37.299999999999997</v>
+      <c r="L28" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="M28" s="6">
+        <v>-21.6</v>
+      </c>
+      <c r="N28" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="O28" s="6">
+        <v>-21.3</v>
       </c>
       <c r="P28" s="6">
-        <v>2</v>
+        <v>-2.1</v>
       </c>
       <c r="Q28" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -7959,23 +7954,23 @@
       <c r="K29" s="6">
         <v>32.299999999999997</v>
       </c>
-      <c r="L29" s="7">
-        <v>-36.4</v>
-      </c>
-      <c r="M29" s="7">
-        <v>-39.9</v>
-      </c>
-      <c r="N29" s="7">
-        <v>-36.4</v>
-      </c>
-      <c r="O29" s="7">
-        <v>-39.700000000000003</v>
+      <c r="L29" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="M29" s="6">
+        <v>-23.9</v>
+      </c>
+      <c r="N29" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="O29" s="6">
+        <v>-23.7</v>
       </c>
       <c r="P29" s="6">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q29" s="6">
-        <v>3.3</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -8012,23 +8007,23 @@
       <c r="K30" s="6">
         <v>31.8</v>
       </c>
-      <c r="L30" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="M30" s="7">
-        <v>-35</v>
-      </c>
-      <c r="N30" s="7">
-        <v>-33</v>
-      </c>
-      <c r="O30" s="7">
-        <v>-34.6</v>
+      <c r="L30" s="6">
+        <v>-17</v>
+      </c>
+      <c r="M30" s="6">
+        <v>-19</v>
+      </c>
+      <c r="N30" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="O30" s="6">
+        <v>-18.5</v>
       </c>
       <c r="P30" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q30" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -8065,23 +8060,23 @@
       <c r="K31" s="6">
         <v>31.8</v>
       </c>
-      <c r="L31" s="7">
-        <v>-36.9</v>
-      </c>
-      <c r="M31" s="7">
-        <v>-39.1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>-37.1</v>
-      </c>
-      <c r="O31" s="7">
-        <v>-38.6</v>
+      <c r="L31" s="6">
+        <v>-20.9</v>
+      </c>
+      <c r="M31" s="6">
+        <v>-23.1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>-21.1</v>
+      </c>
+      <c r="O31" s="6">
+        <v>-22.6</v>
       </c>
       <c r="P31" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q31" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -8118,23 +8113,23 @@
       <c r="K32" s="6">
         <v>31.7</v>
       </c>
-      <c r="L32" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="M32" s="7">
-        <v>-33.5</v>
-      </c>
-      <c r="N32" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="O32" s="7">
-        <v>-33.1</v>
+      <c r="L32" s="6">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="M32" s="6">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="N32" s="6">
+        <v>-15.9</v>
+      </c>
+      <c r="O32" s="6">
+        <v>-17</v>
       </c>
       <c r="P32" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q32" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -8171,23 +8166,23 @@
       <c r="K33" s="6">
         <v>31.8</v>
       </c>
-      <c r="L33" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="M33" s="7">
-        <v>-37.5</v>
-      </c>
-      <c r="N33" s="7">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="O33" s="7">
-        <v>-36.5</v>
+      <c r="L33" s="6">
+        <v>-19.7</v>
+      </c>
+      <c r="M33" s="6">
+        <v>-21.5</v>
+      </c>
+      <c r="N33" s="6">
+        <v>-19.7</v>
+      </c>
+      <c r="O33" s="6">
+        <v>-20.5</v>
       </c>
       <c r="P33" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q33" s="6">
-        <v>0.8</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -8224,23 +8219,23 @@
       <c r="K34" s="6">
         <v>31.8</v>
       </c>
-      <c r="L34" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M34" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="N34" s="7">
-        <v>-32.6</v>
-      </c>
-      <c r="O34" s="7">
-        <v>-34.1</v>
+      <c r="L34" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="M34" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="N34" s="6">
+        <v>-16.5</v>
+      </c>
+      <c r="O34" s="6">
+        <v>-18</v>
       </c>
       <c r="P34" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q34" s="6">
-        <v>1.4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -8277,23 +8272,23 @@
       <c r="K35" s="6">
         <v>32</v>
       </c>
-      <c r="L35" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="M35" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="N35" s="7">
-        <v>-32.4</v>
-      </c>
-      <c r="O35" s="7">
-        <v>-34.299999999999997</v>
+      <c r="L35" s="6">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="M35" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="N35" s="6">
+        <v>-16.2</v>
+      </c>
+      <c r="O35" s="6">
+        <v>-18.2</v>
       </c>
       <c r="P35" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q35" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -8330,23 +8325,23 @@
       <c r="K36" s="6">
         <v>31.8</v>
       </c>
-      <c r="L36" s="7">
-        <v>-36</v>
-      </c>
-      <c r="M36" s="7">
-        <v>-38.1</v>
-      </c>
-      <c r="N36" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="O36" s="7">
-        <v>-37.6</v>
+      <c r="L36" s="6">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="M36" s="6">
+        <v>-22</v>
+      </c>
+      <c r="N36" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="O36" s="6">
+        <v>-21.5</v>
       </c>
       <c r="P36" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="Q36" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -8383,23 +8378,23 @@
       <c r="K37" s="6">
         <v>31.9</v>
       </c>
-      <c r="L37" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="M37" s="7">
-        <v>-37</v>
-      </c>
-      <c r="N37" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="O37" s="7">
-        <v>-36.5</v>
+      <c r="L37" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="M37" s="6">
+        <v>-21</v>
+      </c>
+      <c r="N37" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="O37" s="6">
+        <v>-20.399999999999999</v>
       </c>
       <c r="P37" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q37" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -8436,23 +8431,23 @@
       <c r="K38" s="6">
         <v>31.6</v>
       </c>
-      <c r="L38" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="M38" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="N38" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="O38" s="7">
-        <v>-35.6</v>
+      <c r="L38" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="M38" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="N38" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="O38" s="6">
+        <v>-19.5</v>
       </c>
       <c r="P38" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Q38" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -8489,23 +8484,23 @@
       <c r="K39" s="6">
         <v>31.8</v>
       </c>
-      <c r="L39" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="M39" s="7">
-        <v>-37.1</v>
-      </c>
-      <c r="N39" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="O39" s="7">
-        <v>-36.700000000000003</v>
+      <c r="L39" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="M39" s="6">
+        <v>-21</v>
+      </c>
+      <c r="N39" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="O39" s="6">
+        <v>-20.7</v>
       </c>
       <c r="P39" s="6">
-        <v>1.9</v>
+        <v>-2</v>
       </c>
       <c r="Q39" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8595,23 +8590,23 @@
       <c r="K41" s="6">
         <v>31.9</v>
       </c>
-      <c r="L41" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="M41" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="N41" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>-35.799999999999997</v>
+      <c r="L41" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="M41" s="6">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="N41" s="6">
+        <v>-18</v>
+      </c>
+      <c r="O41" s="6">
+        <v>-19.7</v>
       </c>
       <c r="P41" s="6">
-        <v>1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="Q41" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -8648,23 +8643,23 @@
       <c r="K42" s="6">
         <v>31.9</v>
       </c>
-      <c r="L42" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="M42" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="N42" s="7">
-        <v>-32.6</v>
-      </c>
-      <c r="O42" s="7">
-        <v>-33.200000000000003</v>
+      <c r="L42" s="6">
+        <v>-16.3</v>
+      </c>
+      <c r="M42" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="N42" s="6">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="O42" s="6">
+        <v>-17.100000000000001</v>
       </c>
       <c r="P42" s="6">
-        <v>1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="Q42" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -8701,23 +8696,23 @@
       <c r="K43" s="6">
         <v>31.9</v>
       </c>
-      <c r="L43" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="M43" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="N43" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="O43" s="7">
-        <v>-34</v>
+      <c r="L43" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="M43" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="N43" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="O43" s="6">
+        <v>-17.899999999999999</v>
       </c>
       <c r="P43" s="6">
-        <v>1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="Q43" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8754,23 +8749,23 @@
       <c r="K44" s="6">
         <v>31.9</v>
       </c>
-      <c r="L44" s="7">
-        <v>-31.9</v>
-      </c>
-      <c r="M44" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="N44" s="7">
-        <v>-31.4</v>
-      </c>
-      <c r="O44" s="7">
-        <v>-32.299999999999997</v>
+      <c r="L44" s="6">
+        <v>-15.7</v>
+      </c>
+      <c r="M44" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="N44" s="6">
+        <v>-15.3</v>
+      </c>
+      <c r="O44" s="6">
+        <v>-16.2</v>
       </c>
       <c r="P44" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Q44" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -8807,23 +8802,23 @@
       <c r="K45" s="6">
         <v>31.8</v>
       </c>
-      <c r="L45" s="7">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="M45" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="N45" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="O45" s="7">
-        <v>-33.799999999999997</v>
+      <c r="L45" s="6">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="M45" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="N45" s="6">
+        <v>-16.3</v>
+      </c>
+      <c r="O45" s="6">
+        <v>-17.7</v>
       </c>
       <c r="P45" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q45" s="6">
-        <v>1.4</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -8860,23 +8855,23 @@
       <c r="K46" s="6">
         <v>31.8</v>
       </c>
-      <c r="L46" s="7">
-        <v>-35.5</v>
-      </c>
-      <c r="M46" s="7">
-        <v>-37.4</v>
-      </c>
-      <c r="N46" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="O46" s="7">
-        <v>-36.4</v>
+      <c r="L46" s="6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="M46" s="6">
+        <v>-21.3</v>
+      </c>
+      <c r="N46" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="O46" s="6">
+        <v>-20.399999999999999</v>
       </c>
       <c r="P46" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q46" s="6">
-        <v>1.6</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -8913,23 +8908,23 @@
       <c r="K47" s="6">
         <v>32</v>
       </c>
-      <c r="L47" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="M47" s="7">
-        <v>-37.299999999999997</v>
-      </c>
-      <c r="N47" s="7">
-        <v>-35</v>
-      </c>
-      <c r="O47" s="7">
-        <v>-37.1</v>
+      <c r="L47" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="M47" s="6">
+        <v>-21.3</v>
+      </c>
+      <c r="N47" s="6">
+        <v>-19</v>
+      </c>
+      <c r="O47" s="6">
+        <v>-21</v>
       </c>
       <c r="P47" s="6">
-        <v>2.4</v>
+        <v>-2.4</v>
       </c>
       <c r="Q47" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8966,23 +8961,23 @@
       <c r="K48" s="6">
         <v>31.9</v>
       </c>
-      <c r="L48" s="7">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="M48" s="7">
-        <v>-37.299999999999997</v>
-      </c>
-      <c r="N48" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O48" s="7">
-        <v>-36.700000000000003</v>
+      <c r="L48" s="6">
+        <v>-18.7</v>
+      </c>
+      <c r="M48" s="6">
+        <v>-21.3</v>
+      </c>
+      <c r="N48" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O48" s="6">
+        <v>-20.6</v>
       </c>
       <c r="P48" s="6">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q48" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -9019,23 +9014,23 @@
       <c r="K49" s="6">
         <v>31.9</v>
       </c>
-      <c r="L49" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="M49" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="N49" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O49" s="7">
-        <v>-36.299999999999997</v>
+      <c r="L49" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="M49" s="6">
+        <v>-20.8</v>
+      </c>
+      <c r="N49" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O49" s="6">
+        <v>-20.2</v>
       </c>
       <c r="P49" s="6">
-        <v>2.4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="Q49" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -9072,23 +9067,23 @@
       <c r="K50" s="6">
         <v>31.8</v>
       </c>
-      <c r="L50" s="7">
-        <v>-35</v>
-      </c>
-      <c r="M50" s="7">
-        <v>-36.5</v>
-      </c>
-      <c r="N50" s="7">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="O50" s="7">
-        <v>-35.9</v>
+      <c r="L50" s="6">
+        <v>-19</v>
+      </c>
+      <c r="M50" s="6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="N50" s="6">
+        <v>-18.7</v>
+      </c>
+      <c r="O50" s="6">
+        <v>-19.8</v>
       </c>
       <c r="P50" s="6">
-        <v>1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="Q50" s="6">
-        <v>1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -9125,23 +9120,23 @@
       <c r="K51" s="6">
         <v>31.6</v>
       </c>
-      <c r="L51" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="M51" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="N51" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="O51" s="7">
-        <v>-34</v>
+      <c r="L51" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="M51" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="N51" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O51" s="6">
+        <v>-17.899999999999999</v>
       </c>
       <c r="P51" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q51" s="6">
-        <v>1</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -9178,23 +9173,23 @@
       <c r="K52" s="6">
         <v>31.8</v>
       </c>
-      <c r="L52" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M52" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="N52" s="7">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="O52" s="7">
-        <v>-34</v>
+      <c r="L52" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="M52" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N52" s="6">
+        <v>-16.2</v>
+      </c>
+      <c r="O52" s="6">
+        <v>-17.899999999999999</v>
       </c>
       <c r="P52" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q52" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -9231,23 +9226,23 @@
       <c r="K53" s="6">
         <v>32</v>
       </c>
-      <c r="L53" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M53" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="N53" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="O53" s="7">
-        <v>-35.6</v>
+      <c r="L53" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="M53" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="N53" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O53" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P53" s="6">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q53" s="6">
-        <v>1.9</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -9284,23 +9279,23 @@
       <c r="K54" s="6">
         <v>31.7</v>
       </c>
-      <c r="L54" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="M54" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="N54" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="O54" s="7">
-        <v>-34.700000000000003</v>
+      <c r="L54" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="M54" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="N54" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="O54" s="6">
+        <v>-18.600000000000001</v>
       </c>
       <c r="P54" s="6">
-        <v>0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="Q54" s="6">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -9337,23 +9332,23 @@
       <c r="K55" s="6">
         <v>31.8</v>
       </c>
-      <c r="L55" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="M55" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="N55" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="O55" s="7">
-        <v>-35.200000000000003</v>
+      <c r="L55" s="6">
+        <v>-18</v>
+      </c>
+      <c r="M55" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="N55" s="6">
+        <v>-18</v>
+      </c>
+      <c r="O55" s="6">
+        <v>-19.2</v>
       </c>
       <c r="P55" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q55" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -9390,23 +9385,23 @@
       <c r="K56" s="6">
         <v>31.9</v>
       </c>
-      <c r="L56" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="M56" s="7">
-        <v>-35.5</v>
-      </c>
-      <c r="N56" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="O56" s="7">
-        <v>-34.5</v>
+      <c r="L56" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="M56" s="6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="N56" s="6">
+        <v>-18</v>
+      </c>
+      <c r="O56" s="6">
+        <v>-18.399999999999999</v>
       </c>
       <c r="P56" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="Q56" s="6">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -9496,23 +9491,23 @@
       <c r="K58" s="6">
         <v>31.9</v>
       </c>
-      <c r="L58" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M58" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="N58" s="7">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="O58" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L58" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="M58" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="N58" s="6">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="O58" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P58" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q58" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -9549,23 +9544,23 @@
       <c r="K59" s="6">
         <v>31.8</v>
       </c>
-      <c r="L59" s="7">
-        <v>-34</v>
-      </c>
-      <c r="M59" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="N59" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="O59" s="7">
-        <v>-35.799999999999997</v>
+      <c r="L59" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="M59" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="N59" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O59" s="6">
+        <v>-19.8</v>
       </c>
       <c r="P59" s="6">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="Q59" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -9602,23 +9597,23 @@
       <c r="K60" s="6">
         <v>31.9</v>
       </c>
-      <c r="L60" s="7">
-        <v>-35</v>
-      </c>
-      <c r="M60" s="7">
-        <v>-37.1</v>
-      </c>
-      <c r="N60" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="O60" s="7">
-        <v>-36.1</v>
+      <c r="L60" s="6">
+        <v>-19</v>
+      </c>
+      <c r="M60" s="6">
+        <v>-21</v>
+      </c>
+      <c r="N60" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="O60" s="6">
+        <v>-20</v>
       </c>
       <c r="P60" s="6">
-        <v>2</v>
+        <v>-2.1</v>
       </c>
       <c r="Q60" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -9655,23 +9650,23 @@
       <c r="K61" s="6">
         <v>31.7</v>
       </c>
-      <c r="L61" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M61" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="N61" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="O61" s="7">
-        <v>-33.9</v>
+      <c r="L61" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="M61" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="N61" s="6">
+        <v>-16.5</v>
+      </c>
+      <c r="O61" s="6">
+        <v>-17.8</v>
       </c>
       <c r="P61" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q61" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -9708,23 +9703,23 @@
       <c r="K62" s="6">
         <v>31.8</v>
       </c>
-      <c r="L62" s="7">
-        <v>-31.8</v>
-      </c>
-      <c r="M62" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="N62" s="7">
-        <v>-31.5</v>
-      </c>
-      <c r="O62" s="7">
-        <v>-32.6</v>
+      <c r="L62" s="6">
+        <v>-15.6</v>
+      </c>
+      <c r="M62" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="N62" s="6">
+        <v>-15.3</v>
+      </c>
+      <c r="O62" s="6">
+        <v>-16.5</v>
       </c>
       <c r="P62" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="Q62" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -9761,23 +9756,23 @@
       <c r="K63" s="6">
         <v>31.9</v>
       </c>
-      <c r="L63" s="7">
-        <v>-36</v>
-      </c>
-      <c r="M63" s="7">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="N63" s="7">
-        <v>-36.6</v>
-      </c>
-      <c r="O63" s="7">
-        <v>-38.200000000000003</v>
+      <c r="L63" s="6">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="M63" s="6">
+        <v>-22.1</v>
+      </c>
+      <c r="N63" s="6">
+        <v>-20.5</v>
+      </c>
+      <c r="O63" s="6">
+        <v>-22.2</v>
       </c>
       <c r="P63" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q63" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -9814,23 +9809,23 @@
       <c r="K64" s="6">
         <v>31.9</v>
       </c>
-      <c r="L64" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="M64" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N64" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="O64" s="7">
-        <v>-34.700000000000003</v>
+      <c r="L64" s="6">
+        <v>-18</v>
+      </c>
+      <c r="M64" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N64" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="O64" s="6">
+        <v>-18.600000000000001</v>
       </c>
       <c r="P64" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q64" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -9867,23 +9862,23 @@
       <c r="K65" s="6">
         <v>31.9</v>
       </c>
-      <c r="L65" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="M65" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="N65" s="7">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="O65" s="7">
-        <v>-34.1</v>
+      <c r="L65" s="6">
+        <v>-16.5</v>
+      </c>
+      <c r="M65" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N65" s="6">
+        <v>-16.2</v>
+      </c>
+      <c r="O65" s="6">
+        <v>-18</v>
       </c>
       <c r="P65" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q65" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -9920,23 +9915,23 @@
       <c r="K66" s="6">
         <v>31.9</v>
       </c>
-      <c r="L66" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="M66" s="7">
-        <v>-38.4</v>
-      </c>
-      <c r="N66" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="O66" s="7">
-        <v>-37.9</v>
+      <c r="L66" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="M66" s="6">
+        <v>-22.4</v>
+      </c>
+      <c r="N66" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="O66" s="6">
+        <v>-21.9</v>
       </c>
       <c r="P66" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q66" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -9973,23 +9968,23 @@
       <c r="K67" s="6">
         <v>32</v>
       </c>
-      <c r="L67" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="M67" s="7">
-        <v>-36.9</v>
-      </c>
-      <c r="N67" s="7">
-        <v>-35</v>
-      </c>
-      <c r="O67" s="7">
-        <v>-36.5</v>
+      <c r="L67" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="M67" s="6">
+        <v>-20.9</v>
+      </c>
+      <c r="N67" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="O67" s="6">
+        <v>-20.5</v>
       </c>
       <c r="P67" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q67" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -10026,23 +10021,23 @@
       <c r="K68" s="6">
         <v>32</v>
       </c>
-      <c r="L68" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="M68" s="7">
-        <v>-37.700000000000003</v>
-      </c>
-      <c r="N68" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="O68" s="7">
-        <v>-37.1</v>
+      <c r="L68" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="M68" s="6">
+        <v>-21.6</v>
+      </c>
+      <c r="N68" s="6">
+        <v>-20.7</v>
+      </c>
+      <c r="O68" s="6">
+        <v>-21.1</v>
       </c>
       <c r="P68" s="6">
-        <v>1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="Q68" s="6">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -10132,23 +10127,23 @@
       <c r="K70" s="6">
         <v>31.9</v>
       </c>
-      <c r="L70" s="7">
-        <v>-36</v>
-      </c>
-      <c r="M70" s="7">
-        <v>-37.6</v>
-      </c>
-      <c r="N70" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="O70" s="7">
-        <v>-37.4</v>
+      <c r="L70" s="6">
+        <v>-20</v>
+      </c>
+      <c r="M70" s="6">
+        <v>-21.6</v>
+      </c>
+      <c r="N70" s="6">
+        <v>-20.7</v>
+      </c>
+      <c r="O70" s="6">
+        <v>-21.3</v>
       </c>
       <c r="P70" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q70" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -10185,23 +10180,23 @@
       <c r="K71" s="6">
         <v>31.7</v>
       </c>
-      <c r="L71" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="M71" s="7">
-        <v>-37.5</v>
-      </c>
-      <c r="N71" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="O71" s="7">
-        <v>-37.200000000000003</v>
+      <c r="L71" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="M71" s="6">
+        <v>-21.5</v>
+      </c>
+      <c r="N71" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="O71" s="6">
+        <v>-21.1</v>
       </c>
       <c r="P71" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q71" s="6">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -10238,23 +10233,23 @@
       <c r="K72" s="6">
         <v>31.9</v>
       </c>
-      <c r="L72" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="M72" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="N72" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="O72" s="7">
-        <v>-34.1</v>
+      <c r="L72" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="M72" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="N72" s="6">
+        <v>-17</v>
+      </c>
+      <c r="O72" s="6">
+        <v>-18</v>
       </c>
       <c r="P72" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q72" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -10291,23 +10286,23 @@
       <c r="K73" s="6">
         <v>31.9</v>
       </c>
-      <c r="L73" s="6">
-        <v>-32.6</v>
+      <c r="L73" s="4">
+        <v>-16.432168484765253</v>
       </c>
       <c r="M73" s="6">
-        <v>-34.1</v>
+        <v>-18</v>
       </c>
       <c r="N73" s="6">
-        <v>-32.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="O73" s="6">
-        <v>-33.700000000000003</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="P73" s="6">
-        <v>1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="Q73" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -10344,23 +10339,23 @@
       <c r="K74" s="6">
         <v>31.7</v>
       </c>
-      <c r="L74" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="M74" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="N74" s="7">
-        <v>-31.9</v>
-      </c>
-      <c r="O74" s="7">
-        <v>-34.9</v>
+      <c r="L74" s="4">
+        <v>-18.369296289400094</v>
+      </c>
+      <c r="M74" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="N74" s="6">
+        <v>-15.7</v>
+      </c>
+      <c r="O74" s="6">
+        <v>-18.8</v>
       </c>
       <c r="P74" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q74" s="6">
-        <v>3.1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -10397,23 +10392,23 @@
       <c r="K75" s="6">
         <v>31.8</v>
       </c>
-      <c r="L75" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="M75" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="N75" s="7">
-        <v>-33</v>
-      </c>
-      <c r="O75" s="7">
-        <v>-35.700000000000003</v>
+      <c r="L75" s="4">
+        <v>-18.544166469104727</v>
+      </c>
+      <c r="M75" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="N75" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O75" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P75" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q75" s="6">
-        <v>2.6</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -10450,23 +10445,23 @@
       <c r="K76" s="6">
         <v>31.7</v>
       </c>
-      <c r="L76" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="M76" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N76" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="O76" s="7">
-        <v>-35.6</v>
+      <c r="L76" s="4">
+        <v>-18.242210402986903</v>
+      </c>
+      <c r="M76" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N76" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O76" s="6">
+        <v>-19.5</v>
       </c>
       <c r="P76" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q76" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -10503,23 +10498,23 @@
       <c r="K77" s="6">
         <v>31.7</v>
       </c>
-      <c r="L77" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="M77" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="N77" s="7">
-        <v>-31.8</v>
-      </c>
-      <c r="O77" s="7">
-        <v>-33.6</v>
+      <c r="L77" s="4">
+        <v>-16.026171439637025</v>
+      </c>
+      <c r="M77" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="N77" s="6">
+        <v>-15.7</v>
+      </c>
+      <c r="O77" s="6">
+        <v>-17.399999999999999</v>
       </c>
       <c r="P77" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q77" s="6">
-        <v>1.7</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -10556,23 +10551,23 @@
       <c r="K78" s="6">
         <v>31.9</v>
       </c>
-      <c r="L78" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="M78" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="N78" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="O78" s="7">
-        <v>-34.200000000000003</v>
+      <c r="L78" s="4">
+        <v>-16.942680962879653</v>
+      </c>
+      <c r="M78" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N78" s="6">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="O78" s="6">
+        <v>-18.100000000000001</v>
       </c>
       <c r="P78" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q78" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -10609,23 +10604,23 @@
       <c r="K79" s="6">
         <v>31.8</v>
       </c>
-      <c r="L79" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="M79" s="7">
-        <v>-37.1</v>
-      </c>
-      <c r="N79" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="O79" s="7">
-        <v>-36.5</v>
+      <c r="L79" s="4">
+        <v>-19.829462289933765</v>
+      </c>
+      <c r="M79" s="6">
+        <v>-21.1</v>
+      </c>
+      <c r="N79" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="O79" s="6">
+        <v>-20.5</v>
       </c>
       <c r="P79" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="Q79" s="6">
-        <v>1</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -10662,23 +10657,23 @@
       <c r="K80" s="6">
         <v>31.9</v>
       </c>
-      <c r="L80" s="7">
-        <v>-30.8</v>
-      </c>
-      <c r="M80" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="N80" s="7">
-        <v>-31.6</v>
-      </c>
-      <c r="O80" s="7">
-        <v>-31.9</v>
+      <c r="L80" s="4">
+        <v>-14.638732455701685</v>
+      </c>
+      <c r="M80" s="6">
+        <v>-16</v>
+      </c>
+      <c r="N80" s="6">
+        <v>-15.4</v>
+      </c>
+      <c r="O80" s="6">
+        <v>-15.8</v>
       </c>
       <c r="P80" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q80" s="6">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -10715,23 +10710,23 @@
       <c r="K81" s="6">
         <v>31.8</v>
       </c>
-      <c r="L81" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="M81" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="N81" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="O81" s="7">
-        <v>-34.9</v>
+      <c r="L81" s="4">
+        <v>-17.571959438043571</v>
+      </c>
+      <c r="M81" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="N81" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="O81" s="6">
+        <v>-18.8</v>
       </c>
       <c r="P81" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q81" s="6">
-        <v>1.4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -10768,23 +10763,23 @@
       <c r="K82" s="6">
         <v>31.8</v>
       </c>
-      <c r="L82" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="M82" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="N82" s="7">
-        <v>-33.5</v>
-      </c>
-      <c r="O82" s="7">
-        <v>-34.1</v>
+      <c r="L82" s="4">
+        <v>-17.129548050261789</v>
+      </c>
+      <c r="M82" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="N82" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="O82" s="6">
+        <v>-18</v>
       </c>
       <c r="P82" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="Q82" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -10821,23 +10816,23 @@
       <c r="K83" s="6">
         <v>31.7</v>
       </c>
-      <c r="L83" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="M83" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="N83" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="O83" s="7">
-        <v>-34.4</v>
+      <c r="L83" s="4">
+        <v>-17.948726729296595</v>
+      </c>
+      <c r="M83" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="N83" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="O83" s="6">
+        <v>-18.3</v>
       </c>
       <c r="P83" s="6">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="Q83" s="6">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -10874,23 +10869,23 @@
       <c r="K84" s="6">
         <v>31.8</v>
       </c>
-      <c r="L84" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M84" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="N84" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="O84" s="7">
-        <v>-34.299999999999997</v>
+      <c r="L84" s="4">
+        <v>-17.502739991910321</v>
+      </c>
+      <c r="M84" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="N84" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O84" s="6">
+        <v>-18.2</v>
       </c>
       <c r="P84" s="6">
-        <v>0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="Q84" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -10927,23 +10922,23 @@
       <c r="K85" s="6">
         <v>31.9</v>
       </c>
-      <c r="L85" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="M85" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="N85" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="O85" s="7">
-        <v>-34.1</v>
+      <c r="L85" s="4">
+        <v>-16.751916574980985</v>
+      </c>
+      <c r="M85" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="N85" s="6">
+        <v>-16.5</v>
+      </c>
+      <c r="O85" s="6">
+        <v>-18</v>
       </c>
       <c r="P85" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q85" s="6">
-        <v>1.5</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -10980,23 +10975,23 @@
       <c r="K86" s="6">
         <v>31.7</v>
       </c>
-      <c r="L86" s="7">
-        <v>-33.5</v>
-      </c>
-      <c r="M86" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N86" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="O86" s="7">
-        <v>-35.1</v>
+      <c r="L86" s="4">
+        <v>-17.419565305107355</v>
+      </c>
+      <c r="M86" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N86" s="6">
+        <v>-16.7</v>
+      </c>
+      <c r="O86" s="6">
+        <v>-19.100000000000001</v>
       </c>
       <c r="P86" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q86" s="6">
-        <v>2.2999999999999998</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -11086,23 +11081,23 @@
       <c r="K88" s="6">
         <v>31.8</v>
       </c>
-      <c r="L88" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="M88" s="7">
-        <v>-34</v>
-      </c>
-      <c r="N88" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="O88" s="7">
-        <v>-33.799999999999997</v>
+      <c r="L88" s="4">
+        <v>-16.345580634155699</v>
+      </c>
+      <c r="M88" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="N88" s="6">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="O88" s="6">
+        <v>-17.7</v>
       </c>
       <c r="P88" s="6">
-        <v>1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="Q88" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -11139,23 +11134,23 @@
       <c r="K89" s="6">
         <v>31.8</v>
       </c>
-      <c r="L89" s="7">
-        <v>-32.6</v>
-      </c>
-      <c r="M89" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="N89" s="7">
-        <v>-32.6</v>
-      </c>
-      <c r="O89" s="7">
-        <v>-33.799999999999997</v>
+      <c r="L89" s="4">
+        <v>-16.423763871477149</v>
+      </c>
+      <c r="M89" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="N89" s="6">
+        <v>-16.5</v>
+      </c>
+      <c r="O89" s="6">
+        <v>-17.7</v>
       </c>
       <c r="P89" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q89" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -11192,23 +11187,23 @@
       <c r="K90" s="6">
         <v>31.7</v>
       </c>
-      <c r="L90" s="7">
-        <v>-32</v>
-      </c>
-      <c r="M90" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="N90" s="7">
-        <v>-31.5</v>
-      </c>
-      <c r="O90" s="7">
-        <v>-32.9</v>
+      <c r="L90" s="4">
+        <v>-15.885783897112592</v>
+      </c>
+      <c r="M90" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="N90" s="6">
+        <v>-15.4</v>
+      </c>
+      <c r="O90" s="6">
+        <v>-16.8</v>
       </c>
       <c r="P90" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q90" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -11245,23 +11240,23 @@
       <c r="K91" s="6">
         <v>31.9</v>
       </c>
-      <c r="L91" s="7">
-        <v>-31.3</v>
-      </c>
-      <c r="M91" s="7">
-        <v>-32.6</v>
-      </c>
-      <c r="N91" s="7">
-        <v>-30.7</v>
-      </c>
-      <c r="O91" s="7">
-        <v>-32.1</v>
+      <c r="L91" s="4">
+        <v>-15.127081155225541</v>
+      </c>
+      <c r="M91" s="6">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="N91" s="6">
+        <v>-14.5</v>
+      </c>
+      <c r="O91" s="6">
+        <v>-16</v>
       </c>
       <c r="P91" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q91" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -11298,23 +11293,23 @@
       <c r="K92" s="6">
         <v>31.9</v>
       </c>
-      <c r="L92" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="M92" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="N92" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="O92" s="7">
-        <v>-34.700000000000003</v>
+      <c r="L92" s="4">
+        <v>-16.555817000536432</v>
+      </c>
+      <c r="M92" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="N92" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="O92" s="6">
+        <v>-18.600000000000001</v>
       </c>
       <c r="P92" s="6">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q92" s="6">
-        <v>1.3</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -11351,23 +11346,23 @@
       <c r="K93" s="6">
         <v>31.8</v>
       </c>
-      <c r="L93" s="7">
-        <v>-34</v>
-      </c>
-      <c r="M93" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N93" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="O93" s="7">
-        <v>-35.1</v>
+      <c r="L93" s="4">
+        <v>-17.913481576797952</v>
+      </c>
+      <c r="M93" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N93" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O93" s="6">
+        <v>-19</v>
       </c>
       <c r="P93" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q93" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -11404,23 +11399,23 @@
       <c r="K94" s="6">
         <v>31.8</v>
       </c>
-      <c r="L94" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="M94" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="N94" s="7">
-        <v>-32.4</v>
-      </c>
-      <c r="O94" s="7">
-        <v>-34</v>
+      <c r="L94" s="4">
+        <v>-16.550697254826719</v>
+      </c>
+      <c r="M94" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="N94" s="6">
+        <v>-16.2</v>
+      </c>
+      <c r="O94" s="6">
+        <v>-17.899999999999999</v>
       </c>
       <c r="P94" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q94" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -11457,23 +11452,23 @@
       <c r="K95" s="6">
         <v>31.8</v>
       </c>
-      <c r="L95" s="7">
-        <v>-31.8</v>
-      </c>
-      <c r="M95" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="N95" s="7">
-        <v>-31.6</v>
-      </c>
-      <c r="O95" s="7">
-        <v>-33.4</v>
+      <c r="L95" s="4">
+        <v>-15.691088319127577</v>
+      </c>
+      <c r="M95" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="N95" s="6">
+        <v>-15.5</v>
+      </c>
+      <c r="O95" s="6">
+        <v>-17.3</v>
       </c>
       <c r="P95" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q95" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -11510,23 +11505,23 @@
       <c r="K96" s="6">
         <v>31.9</v>
       </c>
-      <c r="L96" s="7">
-        <v>-35</v>
-      </c>
-      <c r="M96" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="N96" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="O96" s="7">
-        <v>-36.1</v>
+      <c r="L96" s="4">
+        <v>-18.907801552095151</v>
+      </c>
+      <c r="M96" s="6">
+        <v>-20.7</v>
+      </c>
+      <c r="N96" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="O96" s="6">
+        <v>-20.100000000000001</v>
       </c>
       <c r="P96" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q96" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -11563,23 +11558,23 @@
       <c r="K97" s="6">
         <v>31.8</v>
       </c>
-      <c r="L97" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="M97" s="7">
-        <v>-38.4</v>
-      </c>
-      <c r="N97" s="7">
-        <v>-37.4</v>
-      </c>
-      <c r="O97" s="7">
-        <v>-38.200000000000003</v>
+      <c r="L97" s="4">
+        <v>-20.781555861371981</v>
+      </c>
+      <c r="M97" s="6">
+        <v>-22.3</v>
+      </c>
+      <c r="N97" s="6">
+        <v>-21.3</v>
+      </c>
+      <c r="O97" s="6">
+        <v>-22.2</v>
       </c>
       <c r="P97" s="6">
-        <v>1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="Q97" s="6">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -11616,23 +11611,23 @@
       <c r="K98" s="6">
         <v>31.9</v>
       </c>
-      <c r="L98" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="M98" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="N98" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="O98" s="7">
-        <v>-35</v>
+      <c r="L98" s="4">
+        <v>-17.773517653894899</v>
+      </c>
+      <c r="M98" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="N98" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O98" s="6">
+        <v>-18.899999999999999</v>
       </c>
       <c r="P98" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q98" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -11669,23 +11664,23 @@
       <c r="K99" s="6">
         <v>31.8</v>
       </c>
-      <c r="L99" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="M99" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="N99" s="7">
-        <v>-32</v>
-      </c>
-      <c r="O99" s="7">
-        <v>-32.6</v>
+      <c r="L99" s="4">
+        <v>-16.541801242777822</v>
+      </c>
+      <c r="M99" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="N99" s="6">
+        <v>-15.9</v>
+      </c>
+      <c r="O99" s="6">
+        <v>-16.5</v>
       </c>
       <c r="P99" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
       <c r="Q99" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -11722,23 +11717,23 @@
       <c r="K100" s="6">
         <v>31.8</v>
       </c>
-      <c r="L100" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M100" s="7">
-        <v>-37</v>
-      </c>
-      <c r="N100" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="O100" s="7">
-        <v>-35.299999999999997</v>
+      <c r="L100" s="4">
+        <v>-16.914755957438523</v>
+      </c>
+      <c r="M100" s="6">
+        <v>-21</v>
+      </c>
+      <c r="N100" s="6">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="O100" s="6">
+        <v>-19.2</v>
       </c>
       <c r="P100" s="6">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="Q100" s="6">
-        <v>3.1</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -11775,23 +11770,23 @@
       <c r="K101" s="6">
         <v>31.8</v>
       </c>
-      <c r="L101" s="7">
-        <v>-29.1</v>
-      </c>
-      <c r="M101" s="7">
-        <v>-30.5</v>
-      </c>
-      <c r="N101" s="7">
-        <v>-29.4</v>
-      </c>
-      <c r="O101" s="7">
-        <v>-29.9</v>
+      <c r="L101" s="4">
+        <v>-12.877830413559721</v>
+      </c>
+      <c r="M101" s="6">
+        <v>-14.3</v>
+      </c>
+      <c r="N101" s="6">
+        <v>-13.2</v>
+      </c>
+      <c r="O101" s="6">
+        <v>-13.8</v>
       </c>
       <c r="P101" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q101" s="6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -11828,23 +11823,23 @@
       <c r="K102" s="6">
         <v>31.8</v>
       </c>
-      <c r="L102" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="M102" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N102" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="O102" s="7">
-        <v>-34.299999999999997</v>
+      <c r="L102" s="4">
+        <v>-17.273646500669425</v>
+      </c>
+      <c r="M102" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="N102" s="6">
+        <v>-17</v>
+      </c>
+      <c r="O102" s="6">
+        <v>-18.2</v>
       </c>
       <c r="P102" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q102" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -11881,23 +11876,23 @@
       <c r="K103" s="6">
         <v>31.7</v>
       </c>
-      <c r="L103" s="7">
-        <v>-31.2</v>
-      </c>
-      <c r="M103" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="N103" s="7">
-        <v>-31.6</v>
-      </c>
-      <c r="O103" s="7">
-        <v>-31.9</v>
+      <c r="L103" s="4">
+        <v>-15.061504837836303</v>
+      </c>
+      <c r="M103" s="6">
+        <v>-16</v>
+      </c>
+      <c r="N103" s="6">
+        <v>-15.4</v>
+      </c>
+      <c r="O103" s="6">
+        <v>-15.7</v>
       </c>
       <c r="P103" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q103" s="6">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -11934,23 +11929,23 @@
       <c r="K104" s="6">
         <v>31.7</v>
       </c>
-      <c r="L104" s="7">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="M104" s="7">
-        <v>-37.6</v>
-      </c>
-      <c r="N104" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="O104" s="7">
-        <v>-36.700000000000003</v>
+      <c r="L104" s="4">
+        <v>-19.750974046484959</v>
+      </c>
+      <c r="M104" s="6">
+        <v>-21.6</v>
+      </c>
+      <c r="N104" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="O104" s="6">
+        <v>-20.6</v>
       </c>
       <c r="P104" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q104" s="6">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -11987,23 +11982,23 @@
       <c r="K105" s="6">
         <v>31.8</v>
       </c>
-      <c r="L105" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="M105" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="N105" s="7">
-        <v>-33.5</v>
-      </c>
-      <c r="O105" s="7">
-        <v>-34.1</v>
+      <c r="L105" s="4">
+        <v>-17.781651150625354</v>
+      </c>
+      <c r="M105" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="N105" s="6">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="O105" s="6">
+        <v>-18</v>
       </c>
       <c r="P105" s="6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q105" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -12040,23 +12035,23 @@
       <c r="K106" s="6">
         <v>31.9</v>
       </c>
-      <c r="L106" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="M106" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N106" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="O106" s="7">
-        <v>-34.9</v>
+      <c r="L106" s="4">
+        <v>-17.56306342599445</v>
+      </c>
+      <c r="M106" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N106" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="O106" s="6">
+        <v>-18.8</v>
       </c>
       <c r="P106" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q106" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -12093,20 +12088,20 @@
       <c r="K107" s="6">
         <v>31.7</v>
       </c>
-      <c r="L107" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="M107" s="7">
-        <v>-35.1</v>
+      <c r="L107" s="4">
+        <v>-17.015069083780588</v>
+      </c>
+      <c r="M107" s="6">
+        <v>-19</v>
       </c>
       <c r="N107" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O107" s="7">
-        <v>-35</v>
+      <c r="O107" s="6">
+        <v>-18.899999999999999</v>
       </c>
       <c r="P107" s="6">
-        <v>1.9</v>
+        <v>-2</v>
       </c>
       <c r="Q107" s="6" t="s">
         <v>85</v>
@@ -12146,23 +12141,23 @@
       <c r="K108" s="6">
         <v>31.9</v>
       </c>
-      <c r="L108" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="M108" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="N108" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="O108" s="7">
-        <v>-36</v>
+      <c r="L108" s="4">
+        <v>-18.548995732788566</v>
+      </c>
+      <c r="M108" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="N108" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="O108" s="6">
+        <v>-19.899999999999999</v>
       </c>
       <c r="P108" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q108" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -12199,23 +12194,23 @@
       <c r="K109" s="6">
         <v>31.8</v>
       </c>
-      <c r="L109" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="M109" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="N109" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="O109" s="7">
-        <v>-34.299999999999997</v>
+      <c r="L109" s="4">
+        <v>-16.539695248088627</v>
+      </c>
+      <c r="M109" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N109" s="6">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="O109" s="6">
+        <v>-18.2</v>
       </c>
       <c r="P109" s="6">
-        <v>2</v>
+        <v>-1.9</v>
       </c>
       <c r="Q109" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -12252,23 +12247,23 @@
       <c r="K110" s="6">
         <v>31.6</v>
       </c>
-      <c r="L110" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="M110" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N110" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="O110" s="7">
-        <v>-34.6</v>
+      <c r="L110" s="4">
+        <v>-17.298385886557853</v>
+      </c>
+      <c r="M110" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="N110" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O110" s="6">
+        <v>-18.5</v>
       </c>
       <c r="P110" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q110" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -12305,23 +12300,23 @@
       <c r="K111" s="6">
         <v>31.8</v>
       </c>
-      <c r="L111" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="M111" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N111" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="O111" s="7">
-        <v>-34.700000000000003</v>
+      <c r="L111" s="4">
+        <v>-19.030142898749048</v>
+      </c>
+      <c r="M111" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N111" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O111" s="6">
+        <v>-18.600000000000001</v>
       </c>
       <c r="P111" s="6">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="Q111" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -12358,20 +12353,20 @@
       <c r="K112" s="6">
         <v>31.1</v>
       </c>
-      <c r="L112" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="M112" s="7">
-        <v>-33.5</v>
+      <c r="L112" s="4">
+        <v>-17.088415795367684</v>
+      </c>
+      <c r="M112" s="6">
+        <v>-17.3</v>
       </c>
       <c r="N112" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O112" s="7">
-        <v>-33</v>
+      <c r="O112" s="6">
+        <v>-16.899999999999999</v>
       </c>
       <c r="P112" s="6">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="Q112" s="6" t="s">
         <v>85</v>
@@ -12411,23 +12406,23 @@
       <c r="K113" s="6">
         <v>31.7</v>
       </c>
-      <c r="L113" s="7">
-        <v>-31.9</v>
-      </c>
-      <c r="M113" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="N113" s="7">
-        <v>-31.7</v>
-      </c>
-      <c r="O113" s="7">
-        <v>-32.200000000000003</v>
+      <c r="L113" s="4">
+        <v>-15.708371999679782</v>
+      </c>
+      <c r="M113" s="6">
+        <v>-16.7</v>
+      </c>
+      <c r="N113" s="6">
+        <v>-15.6</v>
+      </c>
+      <c r="O113" s="6">
+        <v>-16.100000000000001</v>
       </c>
       <c r="P113" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q113" s="6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -12464,23 +12459,23 @@
       <c r="K114" s="6">
         <v>31.8</v>
       </c>
-      <c r="L114" s="7">
-        <v>-31.7</v>
-      </c>
-      <c r="M114" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="N114" s="7">
-        <v>-31.5</v>
-      </c>
-      <c r="O114" s="7">
-        <v>-32.799999999999997</v>
+      <c r="L114" s="4">
+        <v>-15.596112800014716</v>
+      </c>
+      <c r="M114" s="6">
+        <v>-17</v>
+      </c>
+      <c r="N114" s="6">
+        <v>-15.3</v>
+      </c>
+      <c r="O114" s="6">
+        <v>-16.600000000000001</v>
       </c>
       <c r="P114" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q114" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -12517,23 +12512,23 @@
       <c r="K115" s="6">
         <v>31.8</v>
       </c>
-      <c r="L115" s="7">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="M115" s="7">
-        <v>-37</v>
-      </c>
-      <c r="N115" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="O115" s="7">
-        <v>-36.299999999999997</v>
+      <c r="L115" s="4">
+        <v>-19.740129384177575</v>
+      </c>
+      <c r="M115" s="6">
+        <v>-20.9</v>
+      </c>
+      <c r="N115" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="O115" s="6">
+        <v>-20.2</v>
       </c>
       <c r="P115" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="Q115" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -12570,23 +12565,23 @@
       <c r="K116" s="6">
         <v>31.7</v>
       </c>
-      <c r="L116" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="M116" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N116" s="7">
-        <v>-34</v>
-      </c>
-      <c r="O116" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L116" s="4">
+        <v>-18.053445499701116</v>
+      </c>
+      <c r="M116" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N116" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O116" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P116" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="Q116" s="6">
-        <v>0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -12623,23 +12618,23 @@
       <c r="K117" s="6">
         <v>31.9</v>
       </c>
-      <c r="L117" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="M117" s="7">
-        <v>-36.6</v>
-      </c>
-      <c r="N117" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="O117" s="7">
-        <v>-36.1</v>
+      <c r="L117" s="4">
+        <v>-18.093774087656222</v>
+      </c>
+      <c r="M117" s="6">
+        <v>-20.5</v>
+      </c>
+      <c r="N117" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="O117" s="6">
+        <v>-20</v>
       </c>
       <c r="P117" s="6">
-        <v>2.4</v>
+        <v>-2.4</v>
       </c>
       <c r="Q117" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -12676,23 +12671,23 @@
       <c r="K118" s="6">
         <v>31.9</v>
       </c>
-      <c r="L118" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="M118" s="7">
-        <v>-36.4</v>
-      </c>
-      <c r="N118" s="7">
-        <v>-33</v>
-      </c>
-      <c r="O118" s="7">
-        <v>-35.5</v>
+      <c r="L118" s="4">
+        <v>-19.278553444724732</v>
+      </c>
+      <c r="M118" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="N118" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O118" s="6">
+        <v>-19.399999999999999</v>
       </c>
       <c r="P118" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q118" s="6">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -12729,23 +12724,23 @@
       <c r="K119" s="6">
         <v>31.5</v>
       </c>
-      <c r="L119" s="7">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="M119" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="N119" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="O119" s="7">
-        <v>-33.4</v>
+      <c r="L119" s="4">
+        <v>-16.207819533283761</v>
+      </c>
+      <c r="M119" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="N119" s="6">
+        <v>-16.3</v>
+      </c>
+      <c r="O119" s="6">
+        <v>-17.3</v>
       </c>
       <c r="P119" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q119" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -12782,23 +12777,23 @@
       <c r="K120" s="6">
         <v>31.8</v>
       </c>
-      <c r="L120" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M120" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N120" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="O120" s="7">
-        <v>-33.6</v>
+      <c r="L120" s="4">
+        <v>-17.51087348864089</v>
+      </c>
+      <c r="M120" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="N120" s="6">
+        <v>-16.3</v>
+      </c>
+      <c r="O120" s="6">
+        <v>-17.5</v>
       </c>
       <c r="P120" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q120" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -12835,23 +12830,23 @@
       <c r="K121" s="6">
         <v>31.8</v>
       </c>
-      <c r="L121" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="M121" s="7">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="N121" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="O121" s="7">
-        <v>-36.6</v>
+      <c r="L121" s="4">
+        <v>-20.128842748753595</v>
+      </c>
+      <c r="M121" s="6">
+        <v>-21.1</v>
+      </c>
+      <c r="N121" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="O121" s="6">
+        <v>-20.6</v>
       </c>
       <c r="P121" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q121" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -12888,23 +12883,23 @@
       <c r="K122" s="6">
         <v>31.8</v>
       </c>
-      <c r="L122" s="7">
-        <v>-32.6</v>
-      </c>
-      <c r="M122" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="N122" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="O122" s="7">
-        <v>-34</v>
+      <c r="L122" s="4">
+        <v>-16.420984926760806</v>
+      </c>
+      <c r="M122" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="N122" s="6">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="O122" s="6">
+        <v>-17.899999999999999</v>
       </c>
       <c r="P122" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q122" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -12941,23 +12936,23 @@
       <c r="K123" s="6">
         <v>31.9</v>
       </c>
-      <c r="L123" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="M123" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N123" s="7">
-        <v>-33</v>
-      </c>
-      <c r="O123" s="7">
-        <v>-34.200000000000003</v>
+      <c r="L123" s="4">
+        <v>-17.139511583756484</v>
+      </c>
+      <c r="M123" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="N123" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O123" s="6">
+        <v>-18.100000000000001</v>
       </c>
       <c r="P123" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q123" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -12994,23 +12989,23 @@
       <c r="K124" s="6">
         <v>31.9</v>
       </c>
-      <c r="L124" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="M124" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N124" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O124" s="7">
-        <v>-35.4</v>
+      <c r="L124" s="4">
+        <v>-18.154775313134586</v>
+      </c>
+      <c r="M124" s="6">
+        <v>-20</v>
+      </c>
+      <c r="N124" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O124" s="6">
+        <v>-19.3</v>
       </c>
       <c r="P124" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q124" s="6">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -13047,23 +13042,23 @@
       <c r="K125" s="6">
         <v>32</v>
       </c>
-      <c r="L125" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="M125" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="N125" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="O125" s="7">
-        <v>-35.6</v>
+      <c r="L125" s="4">
+        <v>-17.962282557180576</v>
+      </c>
+      <c r="M125" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N125" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O125" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P125" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="Q125" s="6">
-        <v>2</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -13100,23 +13095,23 @@
       <c r="K126" s="6">
         <v>32</v>
       </c>
-      <c r="L126" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="M126" s="7">
-        <v>-34</v>
-      </c>
-      <c r="N126" s="7">
-        <v>-31.9</v>
-      </c>
-      <c r="O126" s="7">
-        <v>-33.5</v>
+      <c r="L126" s="4">
+        <v>-15.977031563557343</v>
+      </c>
+      <c r="M126" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="N126" s="6">
+        <v>-15.8</v>
+      </c>
+      <c r="O126" s="6">
+        <v>-17.399999999999999</v>
       </c>
       <c r="P126" s="6">
-        <v>1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="Q126" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -13153,23 +13148,23 @@
       <c r="K127" s="6">
         <v>32.1</v>
       </c>
-      <c r="L127" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M127" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N127" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="O127" s="7">
-        <v>-36</v>
+      <c r="L127" s="4">
+        <v>-17.668798883490378</v>
+      </c>
+      <c r="M127" s="6">
+        <v>-20</v>
+      </c>
+      <c r="N127" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O127" s="6">
+        <v>-19.899999999999999</v>
       </c>
       <c r="P127" s="6">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="Q127" s="6">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -13206,23 +13201,23 @@
       <c r="K128" s="6">
         <v>31.9</v>
       </c>
-      <c r="L128" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="M128" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="N128" s="7">
-        <v>-32</v>
-      </c>
-      <c r="O128" s="7">
-        <v>-35</v>
+      <c r="L128" s="4">
+        <v>-17.141138283102599</v>
+      </c>
+      <c r="M128" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N128" s="6">
+        <v>-15.8</v>
+      </c>
+      <c r="O128" s="6">
+        <v>-19</v>
       </c>
       <c r="P128" s="6">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="Q128" s="6">
-        <v>3.1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -13259,23 +13254,23 @@
       <c r="K129" s="6">
         <v>31.8</v>
       </c>
-      <c r="L129" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="M129" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="N129" s="7">
-        <v>-32.6</v>
-      </c>
-      <c r="O129" s="7">
-        <v>-33.9</v>
+      <c r="L129" s="4">
+        <v>-16.940850926115303</v>
+      </c>
+      <c r="M129" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="N129" s="6">
+        <v>-16.5</v>
+      </c>
+      <c r="O129" s="6">
+        <v>-17.8</v>
       </c>
       <c r="P129" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q129" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -13312,23 +13307,23 @@
       <c r="K130" s="6">
         <v>31.9</v>
       </c>
-      <c r="L130" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M130" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="N130" s="7">
-        <v>-32.5</v>
-      </c>
-      <c r="O130" s="7">
-        <v>-34.4</v>
+      <c r="L130" s="4">
+        <v>-16.892727737126911</v>
+      </c>
+      <c r="M130" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N130" s="6">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="O130" s="6">
+        <v>-18.3</v>
       </c>
       <c r="P130" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q130" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -13365,23 +13360,23 @@
       <c r="K131" s="6">
         <v>31.8</v>
       </c>
-      <c r="L131" s="7">
-        <v>-34</v>
-      </c>
-      <c r="M131" s="7">
-        <v>-36.6</v>
-      </c>
-      <c r="N131" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="O131" s="7">
-        <v>-35.5</v>
+      <c r="L131" s="4">
+        <v>-17.889419982303757</v>
+      </c>
+      <c r="M131" s="6">
+        <v>-20.5</v>
+      </c>
+      <c r="N131" s="6">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="O131" s="6">
+        <v>-19.399999999999999</v>
       </c>
       <c r="P131" s="6">
-        <v>2.6</v>
+        <v>-2.6</v>
       </c>
       <c r="Q131" s="6">
-        <v>3.3</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -13418,23 +13413,23 @@
       <c r="K132" s="6">
         <v>31.9</v>
       </c>
-      <c r="L132" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="M132" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="N132" s="7">
-        <v>-32.4</v>
-      </c>
-      <c r="O132" s="7">
-        <v>-33.4</v>
+      <c r="L132" s="4">
+        <v>-16.54197069062635</v>
+      </c>
+      <c r="M132" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="N132" s="6">
+        <v>-16.3</v>
+      </c>
+      <c r="O132" s="6">
+        <v>-17.2</v>
       </c>
       <c r="P132" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Q132" s="6">
-        <v>0.9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -13471,23 +13466,23 @@
       <c r="K133" s="6">
         <v>31.7</v>
       </c>
-      <c r="L133" s="7">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="M133" s="7">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="N133" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="O133" s="7">
-        <v>-34</v>
+      <c r="L133" s="4">
+        <v>-16.663295350188733</v>
+      </c>
+      <c r="M133" s="6">
+        <v>-18.7</v>
+      </c>
+      <c r="N133" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O133" s="6">
+        <v>-17.899999999999999</v>
       </c>
       <c r="P133" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q133" s="6">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -13524,23 +13519,23 @@
       <c r="K134" s="6">
         <v>32</v>
       </c>
-      <c r="L134" s="7">
-        <v>-36.4</v>
-      </c>
-      <c r="M134" s="7">
-        <v>-39.4</v>
-      </c>
-      <c r="N134" s="7">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="O134" s="7">
-        <v>-38.5</v>
+      <c r="L134" s="4">
+        <v>-20.331502375620538</v>
+      </c>
+      <c r="M134" s="6">
+        <v>-23.3</v>
+      </c>
+      <c r="N134" s="6">
+        <v>-20.6</v>
+      </c>
+      <c r="O134" s="6">
+        <v>-22.5</v>
       </c>
       <c r="P134" s="6">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="Q134" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -13577,23 +13572,23 @@
       <c r="K135" s="6">
         <v>31.9</v>
       </c>
-      <c r="L135" s="7">
-        <v>-34</v>
-      </c>
-      <c r="M135" s="7">
-        <v>-36.4</v>
-      </c>
-      <c r="N135" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="O135" s="7">
-        <v>-35.5</v>
+      <c r="L135" s="4">
+        <v>-17.92568182189369</v>
+      </c>
+      <c r="M135" s="6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="N135" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O135" s="6">
+        <v>-19.399999999999999</v>
       </c>
       <c r="P135" s="6">
-        <v>2.4</v>
+        <v>-2.4</v>
       </c>
       <c r="Q135" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -13630,23 +13625,23 @@
       <c r="K136" s="6">
         <v>32</v>
       </c>
-      <c r="L136" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="M136" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="N136" s="7">
-        <v>-31.9</v>
-      </c>
-      <c r="O136" s="7">
-        <v>-33.799999999999997</v>
+      <c r="L136" s="4">
+        <v>-15.9580534045195</v>
+      </c>
+      <c r="M136" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="N136" s="6">
+        <v>-15.8</v>
+      </c>
+      <c r="O136" s="6">
+        <v>-17.7</v>
       </c>
       <c r="P136" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="Q136" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -13683,23 +13678,23 @@
       <c r="K137" s="6">
         <v>31.8</v>
       </c>
-      <c r="L137" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="M137" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N137" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="O137" s="7">
-        <v>-35.5</v>
+      <c r="L137" s="4">
+        <v>-17.841635689012424</v>
+      </c>
+      <c r="M137" s="6">
+        <v>-20</v>
+      </c>
+      <c r="N137" s="6">
+        <v>-18</v>
+      </c>
+      <c r="O137" s="6">
+        <v>-19.399999999999999</v>
       </c>
       <c r="P137" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q137" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -13736,23 +13731,23 @@
       <c r="K138" s="6">
         <v>31.6</v>
       </c>
-      <c r="L138" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="M138" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="N138" s="7">
-        <v>-31.6</v>
-      </c>
-      <c r="O138" s="7">
-        <v>-33.700000000000003</v>
+      <c r="L138" s="4">
+        <v>-16.080394751173401</v>
+      </c>
+      <c r="M138" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="N138" s="6">
+        <v>-15.5</v>
+      </c>
+      <c r="O138" s="6">
+        <v>-17.5</v>
       </c>
       <c r="P138" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q138" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -13789,23 +13784,23 @@
       <c r="K139" s="6">
         <v>31.8</v>
       </c>
-      <c r="L139" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="M139" s="7">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="N139" s="7">
-        <v>-35.5</v>
-      </c>
-      <c r="O139" s="7">
-        <v>-37.4</v>
+      <c r="L139" s="4">
+        <v>-19.339554670203096</v>
+      </c>
+      <c r="M139" s="6">
+        <v>-22.3</v>
+      </c>
+      <c r="N139" s="6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="O139" s="6">
+        <v>-21.4</v>
       </c>
       <c r="P139" s="6">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="Q139" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -13842,23 +13837,23 @@
       <c r="K140" s="6">
         <v>31.8</v>
       </c>
-      <c r="L140" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="M140" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N140" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="O140" s="7">
-        <v>-35.299999999999997</v>
+      <c r="L140" s="4">
+        <v>-18.637701681504915</v>
+      </c>
+      <c r="M140" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N140" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="O140" s="6">
+        <v>-19.3</v>
       </c>
       <c r="P140" s="6">
-        <v>0.9</v>
+        <v>-1</v>
       </c>
       <c r="Q140" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -13896,22 +13891,22 @@
         <v>32</v>
       </c>
       <c r="L141" s="6">
-        <v>-34.5</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="M141" s="6">
-        <v>-36.5</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="N141" s="6">
-        <v>-34.1</v>
+        <v>-18</v>
       </c>
       <c r="O141" s="6">
-        <v>-35.799999999999997</v>
+        <v>-19.7</v>
       </c>
       <c r="P141" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q141" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -13948,23 +13943,23 @@
       <c r="K142" s="6">
         <v>31.6</v>
       </c>
-      <c r="L142" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="M142" s="7">
-        <v>-38.6</v>
-      </c>
-      <c r="N142" s="7">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="O142" s="7">
-        <v>-37.9</v>
+      <c r="L142" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="M142" s="6">
+        <v>-22.6</v>
+      </c>
+      <c r="N142" s="6">
+        <v>-19.7</v>
+      </c>
+      <c r="O142" s="6">
+        <v>-21.8</v>
       </c>
       <c r="P142" s="6">
-        <v>2.7</v>
+        <v>-2.7</v>
       </c>
       <c r="Q142" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -14001,23 +13996,23 @@
       <c r="K143" s="6">
         <v>31.7</v>
       </c>
-      <c r="L143" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M143" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N143" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="O143" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L143" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="M143" s="6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="N143" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O143" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P143" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="Q143" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -14054,23 +14049,23 @@
       <c r="K144" s="6">
         <v>31.5</v>
       </c>
-      <c r="L144" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="M144" s="7">
-        <v>-36.6</v>
-      </c>
-      <c r="N144" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="O144" s="7">
-        <v>-36.4</v>
+      <c r="L144" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="M144" s="6">
+        <v>-20.6</v>
+      </c>
+      <c r="N144" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="O144" s="6">
+        <v>-20.3</v>
       </c>
       <c r="P144" s="6">
-        <v>2.4</v>
+        <v>-2.4</v>
       </c>
       <c r="Q144" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -14107,23 +14102,23 @@
       <c r="K145" s="6">
         <v>31.6</v>
       </c>
-      <c r="L145" s="7">
-        <v>-35.5</v>
-      </c>
-      <c r="M145" s="7">
-        <v>-37.4</v>
-      </c>
-      <c r="N145" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="O145" s="7">
-        <v>-36.5</v>
+      <c r="L145" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="M145" s="6">
+        <v>-21.4</v>
+      </c>
+      <c r="N145" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="O145" s="6">
+        <v>-20.399999999999999</v>
       </c>
       <c r="P145" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q145" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -14160,23 +14155,23 @@
       <c r="K146" s="6">
         <v>31.5</v>
       </c>
-      <c r="L146" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M146" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="N146" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="O146" s="7">
-        <v>-34</v>
+      <c r="L146" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="M146" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N146" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O146" s="6">
+        <v>-17.899999999999999</v>
       </c>
       <c r="P146" s="6">
-        <v>0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="Q146" s="6">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -14213,23 +14208,23 @@
       <c r="K147" s="6">
         <v>31.7</v>
       </c>
-      <c r="L147" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="M147" s="7">
-        <v>-37</v>
-      </c>
-      <c r="N147" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="O147" s="7">
-        <v>-37.200000000000003</v>
+      <c r="L147" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="M147" s="6">
+        <v>-20.9</v>
+      </c>
+      <c r="N147" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="O147" s="6">
+        <v>-21.2</v>
       </c>
       <c r="P147" s="6">
-        <v>1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="Q147" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -14266,23 +14261,23 @@
       <c r="K148" s="6">
         <v>31.7</v>
       </c>
-      <c r="L148" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M148" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="N148" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="O148" s="7">
-        <v>-33.6</v>
+      <c r="L148" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="M148" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N148" s="6">
+        <v>-16</v>
+      </c>
+      <c r="O148" s="6">
+        <v>-17.5</v>
       </c>
       <c r="P148" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q148" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -14319,23 +14314,23 @@
       <c r="K149" s="6">
         <v>31.6</v>
       </c>
-      <c r="L149" s="7">
-        <v>-35</v>
-      </c>
-      <c r="M149" s="7">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="N149" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="O149" s="7">
-        <v>-36.200000000000003</v>
+      <c r="L149" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="M149" s="6">
+        <v>-21.2</v>
+      </c>
+      <c r="N149" s="6">
+        <v>-19</v>
+      </c>
+      <c r="O149" s="6">
+        <v>-20.2</v>
       </c>
       <c r="P149" s="6">
-        <v>2.2999999999999998</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q149" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -14372,23 +14367,23 @@
       <c r="K150" s="6">
         <v>31.6</v>
       </c>
-      <c r="L150" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="M150" s="7">
-        <v>-37</v>
-      </c>
-      <c r="N150" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O150" s="7">
-        <v>-36</v>
+      <c r="L150" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="M150" s="6">
+        <v>-21</v>
+      </c>
+      <c r="N150" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O150" s="6">
+        <v>-19.899999999999999</v>
       </c>
       <c r="P150" s="6">
-        <v>1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="Q150" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -14425,23 +14420,23 @@
       <c r="K151" s="6">
         <v>31.9</v>
       </c>
-      <c r="L151" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M151" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N151" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="O151" s="7">
-        <v>-35.200000000000003</v>
+      <c r="L151" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="M151" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="N151" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="O151" s="6">
+        <v>-19.100000000000001</v>
       </c>
       <c r="P151" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q151" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -14478,23 +14473,23 @@
       <c r="K152" s="6">
         <v>31.7</v>
       </c>
-      <c r="L152" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="M152" s="7">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="N152" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="O152" s="7">
-        <v>-35.700000000000003</v>
+      <c r="L152" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="M152" s="6">
+        <v>-19.7</v>
+      </c>
+      <c r="N152" s="6">
+        <v>-18</v>
+      </c>
+      <c r="O152" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P152" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="Q152" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -14531,23 +14526,23 @@
       <c r="K153" s="6">
         <v>31.8</v>
       </c>
-      <c r="L153" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M153" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N153" s="7">
-        <v>-33.5</v>
-      </c>
-      <c r="O153" s="7">
-        <v>-34.200000000000003</v>
+      <c r="L153" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="M153" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N153" s="6">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="O153" s="6">
+        <v>-18.100000000000001</v>
       </c>
       <c r="P153" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q153" s="6">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -14584,23 +14579,23 @@
       <c r="K154" s="6">
         <v>31.7</v>
       </c>
-      <c r="L154" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="M154" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N154" s="7">
-        <v>-34</v>
-      </c>
-      <c r="O154" s="7">
-        <v>-35.799999999999997</v>
+      <c r="L154" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="M154" s="6">
+        <v>-20</v>
+      </c>
+      <c r="N154" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="O154" s="6">
+        <v>-19.7</v>
       </c>
       <c r="P154" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q154" s="6">
-        <v>1.7</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -14637,23 +14632,23 @@
       <c r="K155" s="6">
         <v>31.7</v>
       </c>
-      <c r="L155" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M155" s="7">
-        <v>-35.5</v>
-      </c>
-      <c r="N155" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="O155" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L155" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="M155" s="6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="N155" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="O155" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P155" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q155" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -14690,23 +14685,23 @@
       <c r="K156" s="6">
         <v>31.6</v>
       </c>
-      <c r="L156" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="M156" s="7">
-        <v>-35</v>
-      </c>
-      <c r="N156" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="O156" s="7">
-        <v>-34.1</v>
+      <c r="L156" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="M156" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="N156" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="O156" s="6">
+        <v>-18</v>
       </c>
       <c r="P156" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="Q156" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -14743,23 +14738,23 @@
       <c r="K157" s="6">
         <v>31.7</v>
       </c>
-      <c r="L157" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="M157" s="7">
-        <v>-35.5</v>
-      </c>
-      <c r="N157" s="7">
-        <v>-33.5</v>
-      </c>
-      <c r="O157" s="7">
-        <v>-35</v>
+      <c r="L157" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="M157" s="6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="N157" s="6">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="O157" s="6">
+        <v>-18.899999999999999</v>
       </c>
       <c r="P157" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q157" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="158" spans="1:17">
@@ -14796,23 +14791,23 @@
       <c r="K158" s="6">
         <v>31.7</v>
       </c>
-      <c r="L158" s="7">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="M158" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="N158" s="7">
-        <v>-32</v>
-      </c>
-      <c r="O158" s="7">
-        <v>-33.700000000000003</v>
+      <c r="L158" s="6">
+        <v>-16.2</v>
+      </c>
+      <c r="M158" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="N158" s="6">
+        <v>-15.8</v>
+      </c>
+      <c r="O158" s="6">
+        <v>-17.600000000000001</v>
       </c>
       <c r="P158" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q158" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -14849,23 +14844,23 @@
       <c r="K159" s="6">
         <v>31.6</v>
       </c>
-      <c r="L159" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="M159" s="7">
-        <v>-35</v>
-      </c>
-      <c r="N159" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="O159" s="7">
-        <v>-34.299999999999997</v>
+      <c r="L159" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="M159" s="6">
+        <v>-19</v>
+      </c>
+      <c r="N159" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O159" s="6">
+        <v>-18.2</v>
       </c>
       <c r="P159" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="Q159" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -14902,23 +14897,23 @@
       <c r="K160" s="6">
         <v>31.6</v>
       </c>
-      <c r="L160" s="7">
-        <v>-34</v>
-      </c>
-      <c r="M160" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="N160" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="O160" s="7">
-        <v>-34.5</v>
+      <c r="L160" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="M160" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N160" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="O160" s="6">
+        <v>-18.399999999999999</v>
       </c>
       <c r="P160" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q160" s="6">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="161" spans="1:17">
@@ -14955,23 +14950,23 @@
       <c r="K161" s="6">
         <v>31.8</v>
       </c>
-      <c r="L161" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="M161" s="7">
-        <v>-37.700000000000003</v>
-      </c>
-      <c r="N161" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="O161" s="7">
-        <v>-37.1</v>
+      <c r="L161" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="M161" s="6">
+        <v>-21.6</v>
+      </c>
+      <c r="N161" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="O161" s="6">
+        <v>-21.1</v>
       </c>
       <c r="P161" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q161" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="162" spans="1:17">
@@ -15008,23 +15003,23 @@
       <c r="K162" s="6">
         <v>31.7</v>
       </c>
-      <c r="L162" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="M162" s="7">
-        <v>-37.5</v>
-      </c>
-      <c r="N162" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="O162" s="7">
-        <v>-37</v>
+      <c r="L162" s="6">
+        <v>-19.7</v>
+      </c>
+      <c r="M162" s="6">
+        <v>-21.5</v>
+      </c>
+      <c r="N162" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="O162" s="6">
+        <v>-20.9</v>
       </c>
       <c r="P162" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q162" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="163" spans="1:17">
@@ -15061,23 +15056,23 @@
       <c r="K163" s="6">
         <v>31.7</v>
       </c>
-      <c r="L163" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M163" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N163" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="O163" s="7">
-        <v>-35</v>
+      <c r="L163" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="M163" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N163" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="O163" s="6">
+        <v>-18.899999999999999</v>
       </c>
       <c r="P163" s="6">
-        <v>1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="Q163" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="164" spans="1:17">
@@ -15114,23 +15109,23 @@
       <c r="K164" s="6">
         <v>31.8</v>
       </c>
-      <c r="L164" s="7">
-        <v>-34</v>
-      </c>
-      <c r="M164" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N164" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="O164" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L164" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="M164" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N164" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O164" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P164" s="6">
-        <v>1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="Q164" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="165" spans="1:17">
@@ -15167,23 +15162,23 @@
       <c r="K165" s="6">
         <v>31.9</v>
       </c>
-      <c r="L165" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="M165" s="7">
-        <v>-38.9</v>
-      </c>
-      <c r="N165" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="O165" s="7">
-        <v>-38.4</v>
+      <c r="L165" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="M165" s="6">
+        <v>-22.9</v>
+      </c>
+      <c r="N165" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="O165" s="6">
+        <v>-22.4</v>
       </c>
       <c r="P165" s="6">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="Q165" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -15220,23 +15215,23 @@
       <c r="K166" s="6">
         <v>31.8</v>
       </c>
-      <c r="L166" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="M166" s="7">
-        <v>-37.5</v>
-      </c>
-      <c r="N166" s="7">
-        <v>-35.4</v>
-      </c>
-      <c r="O166" s="7">
-        <v>-36.9</v>
+      <c r="L166" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="M166" s="6">
+        <v>-21.5</v>
+      </c>
+      <c r="N166" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="O166" s="6">
+        <v>-20.8</v>
       </c>
       <c r="P166" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q166" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="167" spans="1:17">
@@ -15273,23 +15268,23 @@
       <c r="K167" s="6">
         <v>31.7</v>
       </c>
-      <c r="L167" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="M167" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="N167" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="O167" s="7">
-        <v>-35.6</v>
+      <c r="L167" s="6">
+        <v>-18</v>
+      </c>
+      <c r="M167" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="N167" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O167" s="6">
+        <v>-19.5</v>
       </c>
       <c r="P167" s="6">
-        <v>2.1</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q167" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -15326,23 +15321,23 @@
       <c r="K168" s="6">
         <v>31.7</v>
       </c>
-      <c r="L168" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="M168" s="7">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="N168" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="O168" s="7">
-        <v>-36</v>
+      <c r="L168" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="M168" s="6">
+        <v>-20.6</v>
+      </c>
+      <c r="N168" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="O168" s="6">
+        <v>-19.899999999999999</v>
       </c>
       <c r="P168" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="Q168" s="6">
-        <v>0.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="169" spans="1:17">
@@ -15379,23 +15374,23 @@
       <c r="K169" s="6">
         <v>31.8</v>
       </c>
-      <c r="L169" s="7">
-        <v>-33</v>
-      </c>
-      <c r="M169" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N169" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="O169" s="7">
-        <v>-34.200000000000003</v>
+      <c r="L169" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="M169" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="N169" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="O169" s="6">
+        <v>-18.100000000000001</v>
       </c>
       <c r="P169" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q169" s="6">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="170" spans="1:17">
@@ -15432,23 +15427,23 @@
       <c r="K170" s="6">
         <v>31.8</v>
       </c>
-      <c r="L170" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M170" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="N170" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="O170" s="7">
-        <v>-34.9</v>
+      <c r="L170" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="M170" s="6">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="N170" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="O170" s="6">
+        <v>-18.8</v>
       </c>
       <c r="P170" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q170" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -15485,23 +15480,23 @@
       <c r="K171" s="6">
         <v>31.6</v>
       </c>
-      <c r="L171" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="M171" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N171" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="O171" s="7">
-        <v>-35.5</v>
+      <c r="L171" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="M171" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N171" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="O171" s="6">
+        <v>-19.399999999999999</v>
       </c>
       <c r="P171" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="Q171" s="6">
-        <v>1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -15538,23 +15533,23 @@
       <c r="K172" s="6">
         <v>31.8</v>
       </c>
-      <c r="L172" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="M172" s="7">
-        <v>-36.5</v>
-      </c>
-      <c r="N172" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="O172" s="7">
-        <v>-35.6</v>
+      <c r="L172" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="M172" s="6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="N172" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="O172" s="6">
+        <v>-19.5</v>
       </c>
       <c r="P172" s="6">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="Q172" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="173" spans="1:17">
@@ -15591,23 +15586,23 @@
       <c r="K173" s="6">
         <v>31.5</v>
       </c>
-      <c r="L173" s="7">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="M173" s="7">
-        <v>-37.1</v>
-      </c>
-      <c r="N173" s="7">
-        <v>-35.5</v>
-      </c>
-      <c r="O173" s="7">
-        <v>-36.4</v>
+      <c r="L173" s="6">
+        <v>-19.7</v>
+      </c>
+      <c r="M173" s="6">
+        <v>-21.1</v>
+      </c>
+      <c r="N173" s="6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="O173" s="6">
+        <v>-20.399999999999999</v>
       </c>
       <c r="P173" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q173" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="174" spans="1:17">
@@ -15644,23 +15639,23 @@
       <c r="K174" s="6">
         <v>31.5</v>
       </c>
-      <c r="L174" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="M174" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="N174" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O174" s="7">
-        <v>-35.299999999999997</v>
+      <c r="L174" s="6">
+        <v>-19</v>
+      </c>
+      <c r="M174" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="N174" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O174" s="6">
+        <v>-19.2</v>
       </c>
       <c r="P174" s="6">
-        <v>0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="Q174" s="6">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="175" spans="1:17">
@@ -15697,23 +15692,23 @@
       <c r="K175" s="6">
         <v>31.6</v>
       </c>
-      <c r="L175" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="M175" s="7">
-        <v>-36.5</v>
-      </c>
-      <c r="N175" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O175" s="7">
-        <v>-36.1</v>
+      <c r="L175" s="6">
+        <v>-19</v>
+      </c>
+      <c r="M175" s="6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="N175" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O175" s="6">
+        <v>-20</v>
       </c>
       <c r="P175" s="6">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q175" s="6">
-        <v>1.6</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="176" spans="1:17">
@@ -15750,23 +15745,23 @@
       <c r="K176" s="6">
         <v>31.6</v>
       </c>
-      <c r="L176" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="M176" s="7">
-        <v>-34.9</v>
-      </c>
-      <c r="N176" s="7">
-        <v>-33</v>
-      </c>
-      <c r="O176" s="7">
-        <v>-34.5</v>
+      <c r="L176" s="6">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="M176" s="6">
+        <v>-18.8</v>
+      </c>
+      <c r="N176" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O176" s="6">
+        <v>-18.399999999999999</v>
       </c>
       <c r="P176" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q176" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="177" spans="1:17">
@@ -15803,23 +15798,23 @@
       <c r="K177" s="6">
         <v>31.9</v>
       </c>
-      <c r="L177" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="M177" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N177" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="O177" s="7">
-        <v>-35.5</v>
+      <c r="L177" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="M177" s="6">
+        <v>-20</v>
+      </c>
+      <c r="N177" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O177" s="6">
+        <v>-19.399999999999999</v>
       </c>
       <c r="P177" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q177" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="178" spans="1:17">
@@ -15856,23 +15851,23 @@
       <c r="K178" s="6">
         <v>31.5</v>
       </c>
-      <c r="L178" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M178" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="N178" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="O178" s="7">
-        <v>-34.5</v>
+      <c r="L178" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="M178" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N178" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O178" s="6">
+        <v>-18.399999999999999</v>
       </c>
       <c r="P178" s="6">
-        <v>1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="Q178" s="6">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="179" spans="1:17">
@@ -15909,23 +15904,23 @@
       <c r="K179" s="6">
         <v>31.7</v>
       </c>
-      <c r="L179" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="M179" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="N179" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="O179" s="7">
-        <v>-35.9</v>
+      <c r="L179" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="M179" s="6">
+        <v>-20.8</v>
+      </c>
+      <c r="N179" s="6">
+        <v>-18</v>
+      </c>
+      <c r="O179" s="6">
+        <v>-19.8</v>
       </c>
       <c r="P179" s="6">
-        <v>2.4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="Q179" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="180" spans="1:17">
@@ -15962,23 +15957,23 @@
       <c r="K180" s="6">
         <v>31.7</v>
       </c>
-      <c r="L180" s="7">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="M180" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="N180" s="7">
-        <v>-34</v>
-      </c>
-      <c r="O180" s="7">
-        <v>-35.6</v>
+      <c r="L180" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="M180" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N180" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="O180" s="6">
+        <v>-19.5</v>
       </c>
       <c r="P180" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q180" s="6">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="181" spans="1:17">
@@ -16015,23 +16010,23 @@
       <c r="K181" s="6">
         <v>31.7</v>
       </c>
-      <c r="L181" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="M181" s="7">
-        <v>-37.1</v>
-      </c>
-      <c r="N181" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="O181" s="7">
-        <v>-36.700000000000003</v>
+      <c r="L181" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="M181" s="6">
+        <v>-21</v>
+      </c>
+      <c r="N181" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="O181" s="6">
+        <v>-20.6</v>
       </c>
       <c r="P181" s="6">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q181" s="6">
-        <v>2.1</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:17">
@@ -16068,23 +16063,23 @@
       <c r="K182" s="6">
         <v>31.6</v>
       </c>
-      <c r="L182" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="M182" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="N182" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="O182" s="7">
-        <v>-35.1</v>
+      <c r="L182" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="M182" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="N182" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O182" s="6">
+        <v>-19</v>
       </c>
       <c r="P182" s="6">
-        <v>1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="Q182" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="183" spans="1:17">
@@ -16121,23 +16116,23 @@
       <c r="K183" s="6">
         <v>31.8</v>
       </c>
-      <c r="L183" s="7">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="M183" s="7">
-        <v>-34.5</v>
-      </c>
-      <c r="N183" s="7">
-        <v>-32.1</v>
-      </c>
-      <c r="O183" s="7">
-        <v>-33.799999999999997</v>
+      <c r="L183" s="6">
+        <v>-16.7</v>
+      </c>
+      <c r="M183" s="6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="N183" s="6">
+        <v>-15.9</v>
+      </c>
+      <c r="O183" s="6">
+        <v>-17.7</v>
       </c>
       <c r="P183" s="6">
-        <v>1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="Q183" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="184" spans="1:17">
@@ -16174,23 +16169,23 @@
       <c r="K184" s="6">
         <v>31.7</v>
       </c>
-      <c r="L184" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="M184" s="7">
-        <v>-37.6</v>
-      </c>
-      <c r="N184" s="7">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="O184" s="7">
-        <v>-36.700000000000003</v>
+      <c r="L184" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="M184" s="6">
+        <v>-21.6</v>
+      </c>
+      <c r="N184" s="6">
+        <v>-18.7</v>
+      </c>
+      <c r="O184" s="6">
+        <v>-20.6</v>
       </c>
       <c r="P184" s="6">
-        <v>2.4</v>
+        <v>-2.4</v>
       </c>
       <c r="Q184" s="6">
-        <v>1.8</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="185" spans="1:17">
@@ -16227,23 +16222,23 @@
       <c r="K185" s="6">
         <v>31.8</v>
       </c>
-      <c r="L185" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="M185" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N185" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="O185" s="7">
-        <v>-35</v>
+      <c r="L185" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="M185" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N185" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="O185" s="6">
+        <v>-18.899999999999999</v>
       </c>
       <c r="P185" s="6">
-        <v>2.1</v>
+        <v>-2</v>
       </c>
       <c r="Q185" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -16280,23 +16275,23 @@
       <c r="K186" s="6">
         <v>31.7</v>
       </c>
-      <c r="L186" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M186" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="N186" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="O186" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L186" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="M186" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="N186" s="6">
+        <v>-17</v>
+      </c>
+      <c r="O186" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P186" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q186" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="187" spans="1:17">
@@ -16333,23 +16328,23 @@
       <c r="K187" s="6">
         <v>31.9</v>
       </c>
-      <c r="L187" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="M187" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N187" s="7">
-        <v>-33.9</v>
-      </c>
-      <c r="O187" s="7">
-        <v>-35.6</v>
+      <c r="L187" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="M187" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N187" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="O187" s="6">
+        <v>-19.5</v>
       </c>
       <c r="P187" s="6">
-        <v>1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="Q187" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="188" spans="1:17">
@@ -16386,23 +16381,23 @@
       <c r="K188" s="6">
         <v>31.8</v>
       </c>
-      <c r="L188" s="7">
-        <v>-34.1</v>
-      </c>
-      <c r="M188" s="7">
-        <v>-36.1</v>
-      </c>
-      <c r="N188" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="O188" s="7">
-        <v>-35.1</v>
+      <c r="L188" s="6">
+        <v>-18</v>
+      </c>
+      <c r="M188" s="6">
+        <v>-20</v>
+      </c>
+      <c r="N188" s="6">
+        <v>-17.5</v>
+      </c>
+      <c r="O188" s="6">
+        <v>-19</v>
       </c>
       <c r="P188" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q188" s="6">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="189" spans="1:17">
@@ -16439,23 +16434,23 @@
       <c r="K189" s="6">
         <v>31.8</v>
       </c>
-      <c r="L189" s="7">
-        <v>-34</v>
-      </c>
-      <c r="M189" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="N189" s="7">
-        <v>-34.6</v>
-      </c>
-      <c r="O189" s="7">
-        <v>-35.700000000000003</v>
+      <c r="L189" s="6">
+        <v>-17.8</v>
+      </c>
+      <c r="M189" s="6">
+        <v>-20.8</v>
+      </c>
+      <c r="N189" s="6">
+        <v>-18.5</v>
+      </c>
+      <c r="O189" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P189" s="6">
-        <v>2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="Q189" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:17">
@@ -16492,23 +16487,23 @@
       <c r="K190" s="6">
         <v>31.8</v>
       </c>
-      <c r="L190" s="7">
-        <v>-34.4</v>
-      </c>
-      <c r="M190" s="7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="N190" s="7">
-        <v>-34</v>
-      </c>
-      <c r="O190" s="7">
-        <v>-35.9</v>
+      <c r="L190" s="6">
+        <v>-18.3</v>
+      </c>
+      <c r="M190" s="6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="N190" s="6">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="O190" s="6">
+        <v>-19.8</v>
       </c>
       <c r="P190" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q190" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="191" spans="1:17">
@@ -16545,23 +16540,23 @@
       <c r="K191" s="6">
         <v>31.9</v>
       </c>
-      <c r="L191" s="7">
-        <v>-33.5</v>
-      </c>
-      <c r="M191" s="7">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="N191" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="O191" s="7">
-        <v>-35.200000000000003</v>
+      <c r="L191" s="6">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="M191" s="6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N191" s="6">
+        <v>-17</v>
+      </c>
+      <c r="O191" s="6">
+        <v>-19.100000000000001</v>
       </c>
       <c r="P191" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q191" s="6">
-        <v>2</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="192" spans="1:17">
@@ -16598,23 +16593,23 @@
       <c r="K192" s="6">
         <v>31.6</v>
       </c>
-      <c r="L192" s="7">
-        <v>-36.6</v>
-      </c>
-      <c r="M192" s="7">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="N192" s="7">
-        <v>-36.5</v>
-      </c>
-      <c r="O192" s="7">
-        <v>-37.6</v>
+      <c r="L192" s="6">
+        <v>-20.5</v>
+      </c>
+      <c r="M192" s="6">
+        <v>-22.2</v>
+      </c>
+      <c r="N192" s="6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="O192" s="6">
+        <v>-21.5</v>
       </c>
       <c r="P192" s="6">
-        <v>1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="Q192" s="6">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -16651,23 +16646,23 @@
       <c r="K193" s="6">
         <v>31.7</v>
       </c>
-      <c r="L193" s="7">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M193" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="N193" s="7">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="O193" s="7">
-        <v>-34.799999999999997</v>
+      <c r="L193" s="6">
+        <v>-17.7</v>
+      </c>
+      <c r="M193" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="N193" s="6">
+        <v>-16.7</v>
+      </c>
+      <c r="O193" s="6">
+        <v>-18.7</v>
       </c>
       <c r="P193" s="6">
-        <v>1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="Q193" s="6">
-        <v>2.1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="194" spans="1:17">
@@ -16704,23 +16699,23 @@
       <c r="K194" s="6">
         <v>31.6</v>
       </c>
-      <c r="L194" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="M194" s="7">
-        <v>-38</v>
-      </c>
-      <c r="N194" s="7">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="O194" s="7">
-        <v>-37.1</v>
+      <c r="L194" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="M194" s="6">
+        <v>-21.9</v>
+      </c>
+      <c r="N194" s="6">
+        <v>-19.2</v>
+      </c>
+      <c r="O194" s="6">
+        <v>-21.1</v>
       </c>
       <c r="P194" s="6">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="Q194" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="195" spans="1:17">
@@ -16757,23 +16752,23 @@
       <c r="K195" s="6">
         <v>31.6</v>
       </c>
-      <c r="L195" s="7">
-        <v>-35</v>
-      </c>
-      <c r="M195" s="7">
-        <v>-36.6</v>
-      </c>
-      <c r="N195" s="7">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="O195" s="7">
-        <v>-35.6</v>
+      <c r="L195" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="M195" s="6">
+        <v>-20.6</v>
+      </c>
+      <c r="N195" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="O195" s="6">
+        <v>-19.600000000000001</v>
       </c>
       <c r="P195" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="Q195" s="6">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="196" spans="1:17">
@@ -16810,23 +16805,23 @@
       <c r="K196" s="6">
         <v>31.6</v>
       </c>
-      <c r="L196" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="M196" s="7">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="N196" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="O196" s="7">
-        <v>-37.700000000000003</v>
+      <c r="L196" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="M196" s="6">
+        <v>-22.2</v>
+      </c>
+      <c r="N196" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="O196" s="6">
+        <v>-21.6</v>
       </c>
       <c r="P196" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q196" s="6">
-        <v>1.3</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="197" spans="1:17">
@@ -16863,23 +16858,23 @@
       <c r="K197" s="6">
         <v>31.9</v>
       </c>
-      <c r="L197" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="M197" s="7">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="N197" s="7">
-        <v>-33.4</v>
-      </c>
-      <c r="O197" s="7">
-        <v>-34.6</v>
+      <c r="L197" s="6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="M197" s="6">
+        <v>-19.3</v>
+      </c>
+      <c r="N197" s="6">
+        <v>-17.3</v>
+      </c>
+      <c r="O197" s="6">
+        <v>-18.5</v>
       </c>
       <c r="P197" s="6">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="Q197" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="198" spans="1:17">
@@ -16916,23 +16911,23 @@
       <c r="K198" s="6">
         <v>31.9</v>
       </c>
-      <c r="L198" s="7">
-        <v>-33.6</v>
-      </c>
-      <c r="M198" s="7">
-        <v>-35.9</v>
-      </c>
-      <c r="N198" s="7">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="O198" s="7">
-        <v>-35.200000000000003</v>
+      <c r="L198" s="6">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="M198" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="N198" s="6">
+        <v>-17.2</v>
+      </c>
+      <c r="O198" s="6">
+        <v>-19.100000000000001</v>
       </c>
       <c r="P198" s="6">
-        <v>2.4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="Q198" s="6">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="199" spans="1:17">
@@ -16969,23 +16964,23 @@
       <c r="K199" s="6">
         <v>31.7</v>
       </c>
-      <c r="L199" s="7">
-        <v>-32.9</v>
-      </c>
-      <c r="M199" s="7">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="N199" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="O199" s="7">
-        <v>-33.799999999999997</v>
+      <c r="L199" s="6">
+        <v>-16.8</v>
+      </c>
+      <c r="M199" s="6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="N199" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O199" s="6">
+        <v>-17.7</v>
       </c>
       <c r="P199" s="6">
-        <v>1.8</v>
+        <v>-1.8</v>
       </c>
       <c r="Q199" s="6">
-        <v>0.8</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="200" spans="1:17">
@@ -17022,23 +17017,23 @@
       <c r="K200" s="6">
         <v>31.6</v>
       </c>
-      <c r="L200" s="7">
-        <v>-33.1</v>
-      </c>
-      <c r="M200" s="7">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="N200" s="7">
-        <v>-33</v>
-      </c>
-      <c r="O200" s="7">
-        <v>-33.9</v>
+      <c r="L200" s="6">
+        <v>-17</v>
+      </c>
+      <c r="M200" s="6">
+        <v>-18.7</v>
+      </c>
+      <c r="N200" s="6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O200" s="6">
+        <v>-17.8</v>
       </c>
       <c r="P200" s="6">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="Q200" s="6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="201" spans="1:17">
@@ -17075,23 +17070,23 @@
       <c r="K201" s="6">
         <v>31.7</v>
       </c>
-      <c r="L201" s="7">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="M201" s="7">
-        <v>-39</v>
-      </c>
-      <c r="N201" s="7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="O201" s="7">
-        <v>-38.299999999999997</v>
+      <c r="L201" s="6">
+        <v>-20.7</v>
+      </c>
+      <c r="M201" s="6">
+        <v>-22.9</v>
+      </c>
+      <c r="N201" s="6">
+        <v>-20.2</v>
+      </c>
+      <c r="O201" s="6">
+        <v>-22.3</v>
       </c>
       <c r="P201" s="6">
-        <v>2.2000000000000002</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="Q201" s="6">
-        <v>2.1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="202" spans="1:17">
@@ -17128,23 +17123,23 @@
       <c r="K202" s="6">
         <v>31.5</v>
       </c>
-      <c r="L202" s="7">
-        <v>-35.6</v>
-      </c>
-      <c r="M202" s="7">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="N202" s="7">
-        <v>-35.1</v>
-      </c>
-      <c r="O202" s="7">
-        <v>-36.6</v>
+      <c r="L202" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="M202" s="6">
+        <v>-20.8</v>
+      </c>
+      <c r="N202" s="6">
+        <v>-19</v>
+      </c>
+      <c r="O202" s="6">
+        <v>-20.5</v>
       </c>
       <c r="P202" s="6">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="Q202" s="6">
-        <v>1.4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="203" spans="1:17">
@@ -17181,23 +17176,23 @@
       <c r="K203" s="6">
         <v>31.7</v>
       </c>
-      <c r="L203" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="M203" s="7">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="N203" s="7">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="O203" s="7">
-        <v>-32.9</v>
+      <c r="L203" s="6">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="M203" s="6">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="N203" s="6">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="O203" s="6">
+        <v>-16.8</v>
       </c>
       <c r="P203" s="6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q203" s="6">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
